--- a/Benchmark_Per_Alat_Berat_Data_Baru.xlsx
+++ b/Benchmark_Per_Alat_Berat_Data_Baru.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\SPIL\bbm\Analisa BBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679B9ACB-AB7F-4186-8ECF-1F4EDBFE9FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAEBE44-C669-4B2A-A9A9-DAD393A851B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rapor_Unit_Aktif" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,15 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rapor_Unit_Aktif!$A$1:$K$149</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Summary_Group!$A$1:$F$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Unit_Inaktif!$A$1:$F$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Summary_Group!$A$1:$F$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Unit_Inaktif!$A$1:$E$46</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="265">
   <si>
     <t>Benchmark_Group</t>
   </si>
@@ -62,94 +62,328 @@
     <t>Potensi_Pemborosan_Liter</t>
   </si>
   <si>
-    <t>CRANE LARGE (&gt; 70T)</t>
+    <t>CRANE (41T)</t>
   </si>
   <si>
     <t>CRANE</t>
   </si>
   <si>
+    <t>DEPO YONIF</t>
+  </si>
+  <si>
+    <t>RG01</t>
+  </si>
+  <si>
+    <t>EFISIEN</t>
+  </si>
+  <si>
+    <t>RG02</t>
+  </si>
+  <si>
+    <t>RG03</t>
+  </si>
+  <si>
+    <t>BOROS</t>
+  </si>
+  <si>
+    <t>CRANE LARGE (&gt;70T)</t>
+  </si>
+  <si>
     <t>KAIMANA</t>
   </si>
   <si>
     <t>CRANE LB 75 KANGGURU</t>
   </si>
   <si>
-    <t>EFISIEN</t>
-  </si>
-  <si>
     <t>TUAL</t>
   </si>
   <si>
     <t>CRANE LB 80T LUCKY DOLPHIN</t>
   </si>
   <si>
-    <t>BOROS</t>
-  </si>
-  <si>
-    <t>CRANE SMALL (&lt;= 45T)</t>
-  </si>
-  <si>
-    <t>DEPO YONIF</t>
-  </si>
-  <si>
-    <t>RG01</t>
-  </si>
-  <si>
-    <t>RG02</t>
-  </si>
-  <si>
-    <t>RG03</t>
-  </si>
-  <si>
-    <t>FORKLIFT LARGE (6-10T)</t>
+    <t>FORKLIFT (10T)</t>
   </si>
   <si>
     <t>FORKLIFT</t>
   </si>
   <si>
+    <t>NABIRE</t>
+  </si>
+  <si>
+    <t>KALONG</t>
+  </si>
+  <si>
+    <t>DEPO MARUNDA</t>
+  </si>
+  <si>
+    <t>RANGER</t>
+  </si>
+  <si>
     <t>DEPO T.LANGON</t>
   </si>
   <si>
+    <t>BANTENG 1</t>
+  </si>
+  <si>
+    <t>FORKLIFT (28T)</t>
+  </si>
+  <si>
+    <t>TERNATE</t>
+  </si>
+  <si>
+    <t>WARLOCK</t>
+  </si>
+  <si>
+    <t>RAFLESIA</t>
+  </si>
+  <si>
+    <t>FORKLIFT (32T)</t>
+  </si>
+  <si>
+    <t>KENDARI</t>
+  </si>
+  <si>
+    <t>SCORPION</t>
+  </si>
+  <si>
+    <t>JAYAPURA</t>
+  </si>
+  <si>
+    <t>KALMAR 13</t>
+  </si>
+  <si>
+    <t>DEPO MARUNI</t>
+  </si>
+  <si>
+    <t>XAVIER</t>
+  </si>
+  <si>
+    <t>CABANG LUWUK</t>
+  </si>
+  <si>
+    <t>GAJAH TUNGGAL</t>
+  </si>
+  <si>
+    <t>DEPO MERAK</t>
+  </si>
+  <si>
+    <t>MAGNETO</t>
+  </si>
+  <si>
+    <t>FORKLIFT (3T)</t>
+  </si>
+  <si>
+    <t>DEPO PRIOK</t>
+  </si>
+  <si>
+    <t>GLATIK</t>
+  </si>
+  <si>
+    <t>DEPO 4</t>
+  </si>
+  <si>
+    <t>BERNARD BEAR</t>
+  </si>
+  <si>
+    <t>DEPO JAPFA</t>
+  </si>
+  <si>
+    <t>KANTIL</t>
+  </si>
+  <si>
+    <t>BKA</t>
+  </si>
+  <si>
+    <t>BANTENG 3</t>
+  </si>
+  <si>
+    <t>KUTILANG</t>
+  </si>
+  <si>
+    <t>FORKLIFT MITS KENANGA</t>
+  </si>
+  <si>
+    <t>JAKARTA</t>
+  </si>
+  <si>
+    <t>MANYAR</t>
+  </si>
+  <si>
+    <t>DEPO TELUK BAYUR</t>
+  </si>
+  <si>
+    <t>PERKUTUT</t>
+  </si>
+  <si>
+    <t>CENDET</t>
+  </si>
+  <si>
+    <t>BALIKPAPAN</t>
+  </si>
+  <si>
+    <t>MATAHARI</t>
+  </si>
+  <si>
+    <t>BANTENG 4</t>
+  </si>
+  <si>
+    <t>BANTENG 2</t>
+  </si>
+  <si>
+    <t>TARAKAN</t>
+  </si>
+  <si>
+    <t>PRENJAK</t>
+  </si>
+  <si>
+    <t>FORKLIFT (4T)</t>
+  </si>
+  <si>
+    <t>PALEM</t>
+  </si>
+  <si>
+    <t>ATOZ</t>
+  </si>
+  <si>
+    <t>KETAPANG</t>
+  </si>
+  <si>
+    <t>SERUNI</t>
+  </si>
+  <si>
+    <t>KOLIBRI</t>
+  </si>
+  <si>
+    <t>KUDA PUTIH</t>
+  </si>
+  <si>
+    <t>KAKATUA</t>
+  </si>
+  <si>
+    <t>WERKUDORO</t>
+  </si>
+  <si>
+    <t>KENARI</t>
+  </si>
+  <si>
+    <t>SAMARINDA</t>
+  </si>
+  <si>
+    <t>PADI</t>
+  </si>
+  <si>
+    <t>BANJARMASIN</t>
+  </si>
+  <si>
+    <t>RANDU</t>
+  </si>
+  <si>
+    <t>WALET</t>
+  </si>
+  <si>
+    <t>JALAK</t>
+  </si>
+  <si>
+    <t>FORKLIFT (5T)</t>
+  </si>
+  <si>
+    <t>SAKURA</t>
+  </si>
+  <si>
+    <t>HATORI</t>
+  </si>
+  <si>
+    <t>SEMPATI</t>
+  </si>
+  <si>
+    <t>CAMAR</t>
+  </si>
+  <si>
+    <t>CABANG AMBON</t>
+  </si>
+  <si>
+    <t>JATAYU</t>
+  </si>
+  <si>
+    <t>MERPATI</t>
+  </si>
+  <si>
+    <t>KASUARI</t>
+  </si>
+  <si>
+    <t>SERUI</t>
+  </si>
+  <si>
+    <t>KAMBOJA</t>
+  </si>
+  <si>
+    <t>ULIN</t>
+  </si>
+  <si>
+    <t>GARUDA</t>
+  </si>
+  <si>
+    <t>MERAK</t>
+  </si>
+  <si>
+    <t>ROBIN</t>
+  </si>
+  <si>
+    <t>DEPO MANOKWARI</t>
+  </si>
+  <si>
+    <t>CEMARA</t>
+  </si>
+  <si>
+    <t>TIMIKA</t>
+  </si>
+  <si>
+    <t>TREMBESI</t>
+  </si>
+  <si>
+    <t>BAU-BAU</t>
+  </si>
+  <si>
+    <t>GATUT KACA</t>
+  </si>
+  <si>
+    <t>FORKLIFT (6T)</t>
+  </si>
+  <si>
     <t>PINUS</t>
   </si>
   <si>
+    <t>AKASIA</t>
+  </si>
+  <si>
+    <t>FORKLIFT (7T)</t>
+  </si>
+  <si>
     <t>DEPO MM</t>
   </si>
   <si>
     <t>MURAI</t>
   </si>
   <si>
-    <t>DEPO MARUNDA</t>
-  </si>
-  <si>
     <t>WINDU</t>
   </si>
   <si>
-    <t>DEPO PRIOK</t>
-  </si>
-  <si>
     <t>ALPINE</t>
   </si>
   <si>
-    <t>NABIRE</t>
-  </si>
-  <si>
-    <t>KALONG</t>
-  </si>
-  <si>
-    <t>DEPO MERAK</t>
-  </si>
-  <si>
-    <t>AKASIA</t>
-  </si>
-  <si>
     <t>FLAMINGO</t>
   </si>
   <si>
-    <t>RANGER</t>
-  </si>
-  <si>
-    <t>BANTENG 1</t>
+    <t>ELANG</t>
+  </si>
+  <si>
+    <t>GIANT</t>
+  </si>
+  <si>
+    <t>PENYU</t>
+  </si>
+  <si>
+    <t>FORKLIFT (8T)</t>
   </si>
   <si>
     <t>PONTIANAK</t>
@@ -158,228 +392,6 @@
     <t>TULIB</t>
   </si>
   <si>
-    <t>ELANG</t>
-  </si>
-  <si>
-    <t>GIANT</t>
-  </si>
-  <si>
-    <t>PENYU</t>
-  </si>
-  <si>
-    <t>FORKLIFT MEDIUM (4-5T)</t>
-  </si>
-  <si>
-    <t>DEPO 4</t>
-  </si>
-  <si>
-    <t>PALEM</t>
-  </si>
-  <si>
-    <t>BKA</t>
-  </si>
-  <si>
-    <t>SAKURA</t>
-  </si>
-  <si>
-    <t>SAMARINDA</t>
-  </si>
-  <si>
-    <t>HATORI</t>
-  </si>
-  <si>
-    <t>ATOZ</t>
-  </si>
-  <si>
-    <t>KETAPANG</t>
-  </si>
-  <si>
-    <t>SERUNI</t>
-  </si>
-  <si>
-    <t>SEMPATI</t>
-  </si>
-  <si>
-    <t>CAMAR</t>
-  </si>
-  <si>
-    <t>KOLIBRI</t>
-  </si>
-  <si>
-    <t>DEPO TELUK BAYUR</t>
-  </si>
-  <si>
-    <t>KUDA PUTIH</t>
-  </si>
-  <si>
-    <t>CABANG AMBON</t>
-  </si>
-  <si>
-    <t>JATAYU</t>
-  </si>
-  <si>
-    <t>KAKATUA</t>
-  </si>
-  <si>
-    <t>MERPATI</t>
-  </si>
-  <si>
-    <t>DEPO JAPFA</t>
-  </si>
-  <si>
-    <t>KASUARI</t>
-  </si>
-  <si>
-    <t>WERKUDORO</t>
-  </si>
-  <si>
-    <t>SERUI</t>
-  </si>
-  <si>
-    <t>KAMBOJA</t>
-  </si>
-  <si>
-    <t>KENARI</t>
-  </si>
-  <si>
-    <t>BALIKPAPAN</t>
-  </si>
-  <si>
-    <t>ULIN</t>
-  </si>
-  <si>
-    <t>GARUDA</t>
-  </si>
-  <si>
-    <t>PADI</t>
-  </si>
-  <si>
-    <t>MERAK</t>
-  </si>
-  <si>
-    <t>BANJARMASIN</t>
-  </si>
-  <si>
-    <t>RANDU</t>
-  </si>
-  <si>
-    <t>ROBIN</t>
-  </si>
-  <si>
-    <t>DEPO MANOKWARI</t>
-  </si>
-  <si>
-    <t>CEMARA</t>
-  </si>
-  <si>
-    <t>TIMIKA</t>
-  </si>
-  <si>
-    <t>TREMBESI</t>
-  </si>
-  <si>
-    <t>WALET</t>
-  </si>
-  <si>
-    <t>JALAK</t>
-  </si>
-  <si>
-    <t>BAU-BAU</t>
-  </si>
-  <si>
-    <t>GATUT KACA</t>
-  </si>
-  <si>
-    <t>FORKLIFT MONSTER (28T)</t>
-  </si>
-  <si>
-    <t>TERNATE</t>
-  </si>
-  <si>
-    <t>WARLOCK</t>
-  </si>
-  <si>
-    <t>RAFLESIA</t>
-  </si>
-  <si>
-    <t>FORKLIFT MONSTER (32T)</t>
-  </si>
-  <si>
-    <t>KENDARI</t>
-  </si>
-  <si>
-    <t>SCORPION</t>
-  </si>
-  <si>
-    <t>JAYAPURA</t>
-  </si>
-  <si>
-    <t>KALMAR 13</t>
-  </si>
-  <si>
-    <t>DEPO MARUNI</t>
-  </si>
-  <si>
-    <t>XAVIER</t>
-  </si>
-  <si>
-    <t>CABANG LUWUK</t>
-  </si>
-  <si>
-    <t>GAJAH TUNGGAL</t>
-  </si>
-  <si>
-    <t>MAGNETO</t>
-  </si>
-  <si>
-    <t>FORKLIFT SMALL (&lt;= 3T)</t>
-  </si>
-  <si>
-    <t>GLATIK</t>
-  </si>
-  <si>
-    <t>BERNARD BEAR</t>
-  </si>
-  <si>
-    <t>KANTIL</t>
-  </si>
-  <si>
-    <t>BANTENG 3</t>
-  </si>
-  <si>
-    <t>KUTILANG</t>
-  </si>
-  <si>
-    <t>FORKLIFT MITS KENANGA</t>
-  </si>
-  <si>
-    <t>JAKARTA</t>
-  </si>
-  <si>
-    <t>MANYAR</t>
-  </si>
-  <si>
-    <t>PERKUTUT</t>
-  </si>
-  <si>
-    <t>CENDET</t>
-  </si>
-  <si>
-    <t>MATAHARI</t>
-  </si>
-  <si>
-    <t>BANTENG 4</t>
-  </si>
-  <si>
-    <t>BANTENG 2</t>
-  </si>
-  <si>
-    <t>TARAKAN</t>
-  </si>
-  <si>
-    <t>PRENJAK</t>
-  </si>
-  <si>
     <t>REACH STACKER (42T)</t>
   </si>
   <si>
@@ -515,7 +527,7 @@
     <t>SIDE LOUDER KALMAR</t>
   </si>
   <si>
-    <t>TOP LOADER (37-42T)</t>
+    <t>TOP LOADER (COMBINED 37-42T)</t>
   </si>
   <si>
     <t>TOP LOADER</t>
@@ -533,6 +545,9 @@
     <t>TOP LOADER MITS 42T BADAK</t>
   </si>
   <si>
+    <t>TRAILER (40T)</t>
+  </si>
+  <si>
     <t>TRAILER</t>
   </si>
   <si>
@@ -641,6 +656,9 @@
     <t>L 8311 UQ</t>
   </si>
   <si>
+    <t>TRONTON (40T)</t>
+  </si>
+  <si>
     <t>TRONTON</t>
   </si>
   <si>
@@ -668,145 +686,142 @@
     <t>L 8625 US</t>
   </si>
   <si>
-    <t>Populasi_Unit_Aktif</t>
-  </si>
-  <si>
-    <t>BERAU</t>
+    <t>Populasi_Unit</t>
+  </si>
+  <si>
+    <t>B 9157 ZJ</t>
+  </si>
+  <si>
+    <t>B 9220 BL</t>
+  </si>
+  <si>
+    <t>B 9224 BL</t>
+  </si>
+  <si>
+    <t>B 9493 JA</t>
+  </si>
+  <si>
+    <t>B 9566 ZB</t>
+  </si>
+  <si>
+    <t>B 9628 ZJ</t>
+  </si>
+  <si>
+    <t>B 9974 KJ</t>
+  </si>
+  <si>
+    <t>B 9976 KJ</t>
   </si>
   <si>
     <t>CRANE P&amp;H 127 T KOMODO</t>
   </si>
   <si>
+    <t>JATI</t>
+  </si>
+  <si>
+    <t>L 8007 UR S73</t>
+  </si>
+  <si>
+    <t>L 8016 UR</t>
+  </si>
+  <si>
+    <t>L 8039 US S74</t>
+  </si>
+  <si>
+    <t>L 8050 US S79</t>
+  </si>
+  <si>
+    <t>L 8058 US S78</t>
+  </si>
+  <si>
+    <t>L 8085 SK ( EX L 7287 TF )</t>
+  </si>
+  <si>
+    <t>L 8115 US S76</t>
+  </si>
+  <si>
+    <t>L 8153 UO EX L 9378 UN</t>
+  </si>
+  <si>
+    <t>L 8159 US S77</t>
+  </si>
+  <si>
+    <t>L 8195 US</t>
+  </si>
+  <si>
+    <t>L 8247 US</t>
+  </si>
+  <si>
+    <t>L 8293 UQ</t>
+  </si>
+  <si>
+    <t>L 8312 UQ</t>
+  </si>
+  <si>
+    <t>L 8435 US S80</t>
+  </si>
+  <si>
+    <t>L 8660 UN (EX L7918MU)</t>
+  </si>
+  <si>
+    <t>L 8814 UQ</t>
+  </si>
+  <si>
+    <t>L 8819 UQ</t>
+  </si>
+  <si>
+    <t>L 8854 UQ S 68</t>
+  </si>
+  <si>
+    <t>L 8856 UQ</t>
+  </si>
+  <si>
+    <t>L 9048 UT</t>
+  </si>
+  <si>
+    <t>L 9049 UN</t>
+  </si>
+  <si>
+    <t>L 9049 UR</t>
+  </si>
+  <si>
+    <t>L 9052 UR</t>
+  </si>
+  <si>
+    <t>L 9064 UR</t>
+  </si>
+  <si>
+    <t>L 9118 UQ</t>
+  </si>
+  <si>
+    <t>L 9376 UN</t>
+  </si>
+  <si>
+    <t>L 9583 UQ</t>
+  </si>
+  <si>
+    <t>L 9743 UR</t>
+  </si>
+  <si>
+    <t>L9116UQ</t>
+  </si>
+  <si>
+    <t>MELATI</t>
+  </si>
+  <si>
     <t>ORONG ORONG</t>
   </si>
   <si>
-    <t>JATI</t>
-  </si>
-  <si>
-    <t>MELATI</t>
-  </si>
-  <si>
     <t>RAJAWALI</t>
   </si>
   <si>
+    <t>SANY KUPP CAB TUAL</t>
+  </si>
+  <si>
+    <t>SIDE LOUDER BOSS</t>
+  </si>
+  <si>
     <t>SOKA</t>
-  </si>
-  <si>
-    <t>SANY KUPP CAB TUAL</t>
-  </si>
-  <si>
-    <t>SIDE LOUDER BOSS</t>
-  </si>
-  <si>
-    <t>B 9157 ZJ</t>
-  </si>
-  <si>
-    <t>B 9220 BL</t>
-  </si>
-  <si>
-    <t>B 9224 BL</t>
-  </si>
-  <si>
-    <t>B 9493 JA</t>
-  </si>
-  <si>
-    <t>B 9566 ZB</t>
-  </si>
-  <si>
-    <t>B 9628 ZJ</t>
-  </si>
-  <si>
-    <t>B 9974 KJ</t>
-  </si>
-  <si>
-    <t>B 9976 KJ</t>
-  </si>
-  <si>
-    <t>L 8007 UR S73</t>
-  </si>
-  <si>
-    <t>L 8016 UR</t>
-  </si>
-  <si>
-    <t>L 8039 US S74</t>
-  </si>
-  <si>
-    <t>L 8050 US S79</t>
-  </si>
-  <si>
-    <t>L 8058 US S78</t>
-  </si>
-  <si>
-    <t>L 8115 US S76</t>
-  </si>
-  <si>
-    <t>L 8153 UO EX L 9378 UN</t>
-  </si>
-  <si>
-    <t>L 8159 US S77</t>
-  </si>
-  <si>
-    <t>L 8195 US</t>
-  </si>
-  <si>
-    <t>L 8247 US</t>
-  </si>
-  <si>
-    <t>L 8293 UQ</t>
-  </si>
-  <si>
-    <t>L 8312 UQ</t>
-  </si>
-  <si>
-    <t>L 8435 US S80</t>
-  </si>
-  <si>
-    <t>L 8814 UQ</t>
-  </si>
-  <si>
-    <t>L 8819 UQ</t>
-  </si>
-  <si>
-    <t>L 8854 UQ S 68</t>
-  </si>
-  <si>
-    <t>L 8856 UQ</t>
-  </si>
-  <si>
-    <t>L 9048 UT</t>
-  </si>
-  <si>
-    <t>L 9049 UN</t>
-  </si>
-  <si>
-    <t>L 9049 UR</t>
-  </si>
-  <si>
-    <t>L 9052 UR</t>
-  </si>
-  <si>
-    <t>L 9064 UR</t>
-  </si>
-  <si>
-    <t>L 9118 UQ</t>
-  </si>
-  <si>
-    <t>L 9376 UN</t>
-  </si>
-  <si>
-    <t>L 9583 UQ</t>
-  </si>
-  <si>
-    <t>L9116UQ</t>
-  </si>
-  <si>
-    <t>L 8085 SK ( EX L 7287 TF )</t>
-  </si>
-  <si>
-    <t>L 8660 UN (EX L7918MU)</t>
-  </si>
-  <si>
-    <t>L 9743 UR</t>
   </si>
 </sst>
 </file>
@@ -1171,14 +1186,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
@@ -1234,7 +1249,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1243,16 +1258,16 @@
         <v>14</v>
       </c>
       <c r="F2">
-        <v>1585</v>
+        <v>45242.37</v>
       </c>
       <c r="G2">
-        <v>241.09999999999991</v>
+        <v>7816</v>
       </c>
       <c r="H2">
-        <v>6.57</v>
+        <v>5.79</v>
       </c>
       <c r="I2">
-        <v>6.62</v>
+        <v>5.86</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -1269,66 +1284,66 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
       <c r="F3">
-        <v>1421</v>
+        <v>46414.63</v>
       </c>
       <c r="G3">
-        <v>213</v>
+        <v>7916</v>
       </c>
       <c r="H3">
-        <v>6.67</v>
+        <v>5.86</v>
       </c>
       <c r="I3">
-        <v>6.62</v>
+        <v>5.86</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>45242.37</v>
+        <v>46428.46</v>
       </c>
       <c r="G4">
-        <v>7816</v>
+        <v>7704</v>
       </c>
       <c r="H4">
-        <v>5.79</v>
+        <v>6.03</v>
       </c>
       <c r="I4">
         <v>5.86</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1339,25 +1354,25 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>40.6</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5">
-        <v>46414.63</v>
+        <v>1585</v>
       </c>
       <c r="G5">
-        <v>7916</v>
+        <v>241.09999999999991</v>
       </c>
       <c r="H5">
-        <v>5.86</v>
+        <v>6.57</v>
       </c>
       <c r="I5">
-        <v>5.86</v>
+        <v>6.62</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
@@ -1374,31 +1389,31 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>40.6</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
       </c>
       <c r="F6">
-        <v>46428.46</v>
+        <v>1421</v>
       </c>
       <c r="G6">
-        <v>7704</v>
+        <v>213</v>
       </c>
       <c r="H6">
-        <v>6.03</v>
+        <v>6.67</v>
       </c>
       <c r="I6">
-        <v>5.86</v>
+        <v>6.62</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
       </c>
       <c r="K6">
-        <v>1257</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1409,7 +1424,7 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -1418,16 +1433,16 @@
         <v>27</v>
       </c>
       <c r="F7">
-        <v>5630.86</v>
+        <v>2910</v>
       </c>
       <c r="G7">
-        <v>3519</v>
+        <v>853.4</v>
       </c>
       <c r="H7">
-        <v>1.6</v>
+        <v>3.41</v>
       </c>
       <c r="I7">
-        <v>4.6900000000000004</v>
+        <v>5.22</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
@@ -1444,7 +1459,7 @@
         <v>25</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -1453,16 +1468,16 @@
         <v>29</v>
       </c>
       <c r="F8">
-        <v>1372.26</v>
+        <v>9557.01</v>
       </c>
       <c r="G8">
-        <v>538</v>
+        <v>1830</v>
       </c>
       <c r="H8">
-        <v>2.5499999999999998</v>
+        <v>5.22</v>
       </c>
       <c r="I8">
-        <v>4.6900000000000004</v>
+        <v>5.22</v>
       </c>
       <c r="J8" t="s">
         <v>15</v>
@@ -1479,7 +1494,7 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -1488,51 +1503,51 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>1455.2</v>
+        <v>440.89</v>
       </c>
       <c r="G9">
-        <v>555</v>
+        <v>81</v>
       </c>
       <c r="H9">
-        <v>2.62</v>
+        <v>5.44</v>
       </c>
       <c r="I9">
-        <v>4.6900000000000004</v>
+        <v>5.22</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F10">
-        <v>6851.94</v>
+        <v>9700</v>
       </c>
       <c r="G10">
-        <v>2208</v>
+        <v>835.60000000000036</v>
       </c>
       <c r="H10">
-        <v>3.1</v>
+        <v>11.61</v>
       </c>
       <c r="I10">
-        <v>4.6900000000000004</v>
+        <v>11.65</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
@@ -1543,66 +1558,66 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
       </c>
       <c r="F11">
-        <v>2910</v>
+        <v>6129</v>
       </c>
       <c r="G11">
-        <v>853.4</v>
+        <v>524</v>
       </c>
       <c r="H11">
-        <v>3.41</v>
+        <v>11.7</v>
       </c>
       <c r="I11">
-        <v>4.6900000000000004</v>
+        <v>11.65</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12">
-        <v>1349.22</v>
+        <v>4730</v>
       </c>
       <c r="G12">
-        <v>367</v>
+        <v>568</v>
       </c>
       <c r="H12">
-        <v>3.68</v>
+        <v>8.33</v>
       </c>
       <c r="I12">
-        <v>4.6900000000000004</v>
+        <v>10.29</v>
       </c>
       <c r="J12" t="s">
         <v>15</v>
@@ -1613,31 +1628,31 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13">
-        <v>5126.62</v>
+        <v>2761</v>
       </c>
       <c r="G13">
-        <v>1094</v>
+        <v>322.00000000000028</v>
       </c>
       <c r="H13">
-        <v>4.6900000000000004</v>
+        <v>8.57</v>
       </c>
       <c r="I13">
-        <v>4.6900000000000004</v>
+        <v>10.29</v>
       </c>
       <c r="J13" t="s">
         <v>15</v>
@@ -1648,241 +1663,241 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F14">
-        <v>9557.01</v>
+        <v>6700</v>
       </c>
       <c r="G14">
-        <v>1830</v>
+        <v>651</v>
       </c>
       <c r="H14">
-        <v>5.22</v>
+        <v>10.29</v>
       </c>
       <c r="I14">
-        <v>4.6900000000000004</v>
+        <v>10.29</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K14">
-        <v>981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F15">
-        <v>440.89</v>
+        <v>14035</v>
       </c>
       <c r="G15">
-        <v>81</v>
+        <v>1246.5</v>
       </c>
       <c r="H15">
-        <v>5.44</v>
+        <v>11.26</v>
       </c>
       <c r="I15">
-        <v>4.6900000000000004</v>
+        <v>10.29</v>
       </c>
       <c r="J15" t="s">
         <v>18</v>
       </c>
       <c r="K15">
-        <v>61</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16">
-        <v>7.5</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F16">
-        <v>5098</v>
+        <v>24040.87</v>
       </c>
       <c r="G16">
-        <v>925.70000000000027</v>
+        <v>2042</v>
       </c>
       <c r="H16">
-        <v>5.51</v>
+        <v>11.77</v>
       </c>
       <c r="I16">
-        <v>4.6900000000000004</v>
+        <v>10.29</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>
       </c>
       <c r="K16">
-        <v>760</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F17">
-        <v>9075.77</v>
+        <v>504.25</v>
       </c>
       <c r="G17">
-        <v>1582</v>
+        <v>401</v>
       </c>
       <c r="H17">
-        <v>5.74</v>
+        <v>1.26</v>
       </c>
       <c r="I17">
-        <v>4.6900000000000004</v>
+        <v>1.83</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K17">
-        <v>1662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F18">
-        <v>6364.47</v>
+        <v>750.74</v>
       </c>
       <c r="G18">
-        <v>1057</v>
+        <v>558</v>
       </c>
       <c r="H18">
-        <v>6.02</v>
+        <v>1.35</v>
       </c>
       <c r="I18">
-        <v>4.6900000000000004</v>
+        <v>1.83</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K18">
-        <v>1411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F19">
-        <v>7969.38</v>
+        <v>220.36</v>
       </c>
       <c r="G19">
-        <v>1209</v>
+        <v>159</v>
       </c>
       <c r="H19">
-        <v>6.59</v>
+        <v>1.39</v>
       </c>
       <c r="I19">
-        <v>4.6900000000000004</v>
+        <v>1.83</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K19">
-        <v>2304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
       <c r="C20">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F20">
-        <v>123.41</v>
+        <v>698</v>
       </c>
       <c r="G20">
-        <v>183</v>
+        <v>473</v>
       </c>
       <c r="H20">
-        <v>0.67</v>
+        <v>1.48</v>
       </c>
       <c r="I20">
-        <v>2.9</v>
+        <v>1.83</v>
       </c>
       <c r="J20" t="s">
         <v>15</v>
@@ -1893,31 +1908,31 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F21">
-        <v>462</v>
+        <v>902</v>
       </c>
       <c r="G21">
-        <v>255</v>
+        <v>600.09999999999945</v>
       </c>
       <c r="H21">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="I21">
-        <v>2.9</v>
+        <v>1.83</v>
       </c>
       <c r="J21" t="s">
         <v>15</v>
@@ -1928,31 +1943,31 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F22">
-        <v>3810</v>
+        <v>748.56</v>
       </c>
       <c r="G22">
-        <v>1615</v>
+        <v>460</v>
       </c>
       <c r="H22">
-        <v>2.36</v>
+        <v>1.63</v>
       </c>
       <c r="I22">
-        <v>2.9</v>
+        <v>1.83</v>
       </c>
       <c r="J22" t="s">
         <v>15</v>
@@ -1963,31 +1978,31 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
       <c r="C23">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F23">
-        <v>239.45</v>
+        <v>1078.1500000000001</v>
       </c>
       <c r="G23">
-        <v>100</v>
+        <v>589</v>
       </c>
       <c r="H23">
-        <v>2.39</v>
+        <v>1.83</v>
       </c>
       <c r="I23">
-        <v>2.9</v>
+        <v>1.83</v>
       </c>
       <c r="J23" t="s">
         <v>15</v>
@@ -1998,217 +2013,217 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F24">
-        <v>1487.17</v>
+        <v>3236.46</v>
       </c>
       <c r="G24">
-        <v>615</v>
+        <v>1688</v>
       </c>
       <c r="H24">
-        <v>2.42</v>
+        <v>1.92</v>
       </c>
       <c r="I24">
-        <v>2.9</v>
+        <v>1.83</v>
       </c>
       <c r="J24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F25">
-        <v>5560.24</v>
+        <v>208.06</v>
       </c>
       <c r="G25">
-        <v>2230</v>
+        <v>105</v>
       </c>
       <c r="H25">
-        <v>2.4900000000000002</v>
+        <v>1.98</v>
       </c>
       <c r="I25">
-        <v>2.9</v>
+        <v>1.83</v>
       </c>
       <c r="J25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F26">
-        <v>3495</v>
+        <v>925</v>
       </c>
       <c r="G26">
-        <v>1350</v>
+        <v>418</v>
       </c>
       <c r="H26">
-        <v>2.59</v>
+        <v>2.21</v>
       </c>
       <c r="I26">
-        <v>2.9</v>
+        <v>1.83</v>
       </c>
       <c r="J26" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F27">
-        <v>3956.14</v>
+        <v>4064.79</v>
       </c>
       <c r="G27">
-        <v>1519</v>
+        <v>1768</v>
       </c>
       <c r="H27">
-        <v>2.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I27">
-        <v>2.9</v>
+        <v>1.83</v>
       </c>
       <c r="J27" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>829</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
       <c r="C28">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F28">
-        <v>2771.12</v>
+        <v>315</v>
       </c>
       <c r="G28">
-        <v>1056</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="H28">
-        <v>2.62</v>
+        <v>2.42</v>
       </c>
       <c r="I28">
-        <v>2.9</v>
+        <v>1.83</v>
       </c>
       <c r="J28" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
       </c>
       <c r="C29">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F29">
-        <v>2490</v>
+        <v>12945</v>
       </c>
       <c r="G29">
-        <v>944.56</v>
+        <v>1951</v>
       </c>
       <c r="H29">
-        <v>2.64</v>
+        <v>6.64</v>
       </c>
       <c r="I29">
-        <v>2.9</v>
+        <v>1.83</v>
       </c>
       <c r="J29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>9374</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -2217,22 +2232,22 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F30">
-        <v>3720.2</v>
+        <v>123.41</v>
       </c>
       <c r="G30">
-        <v>1353</v>
+        <v>183</v>
       </c>
       <c r="H30">
-        <v>2.75</v>
+        <v>0.67</v>
       </c>
       <c r="I30">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="J30" t="s">
         <v>15</v>
@@ -2243,31 +2258,31 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F31">
-        <v>993.87</v>
+        <v>239.45</v>
       </c>
       <c r="G31">
-        <v>355</v>
+        <v>100</v>
       </c>
       <c r="H31">
-        <v>2.8</v>
+        <v>2.39</v>
       </c>
       <c r="I31">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="J31" t="s">
         <v>15</v>
@@ -2278,31 +2293,31 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
       </c>
       <c r="C32">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F32">
-        <v>4620.75</v>
+        <v>1487.17</v>
       </c>
       <c r="G32">
-        <v>1611</v>
+        <v>615</v>
       </c>
       <c r="H32">
-        <v>2.87</v>
+        <v>2.42</v>
       </c>
       <c r="I32">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="J32" t="s">
         <v>15</v>
@@ -2313,31 +2328,31 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
       </c>
       <c r="C33">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F33">
-        <v>4206.1400000000003</v>
+        <v>3956.14</v>
       </c>
       <c r="G33">
-        <v>1449</v>
+        <v>1519</v>
       </c>
       <c r="H33">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="I33">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="J33" t="s">
         <v>15</v>
@@ -2348,42 +2363,42 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F34">
-        <v>715</v>
+        <v>2771.12</v>
       </c>
       <c r="G34">
-        <v>231.2</v>
+        <v>1056</v>
       </c>
       <c r="H34">
-        <v>3.09</v>
+        <v>2.62</v>
       </c>
       <c r="I34">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="J34" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K34">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
@@ -2392,115 +2407,115 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F35">
-        <v>3722.86</v>
+        <v>3720.2</v>
       </c>
       <c r="G35">
-        <v>1185</v>
+        <v>1353</v>
       </c>
       <c r="H35">
-        <v>3.14</v>
+        <v>2.75</v>
       </c>
       <c r="I35">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="J35" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K35">
-        <v>283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F36">
-        <v>1145</v>
+        <v>4206.1400000000003</v>
       </c>
       <c r="G36">
-        <v>357</v>
+        <v>1449</v>
       </c>
       <c r="H36">
-        <v>3.21</v>
+        <v>2.9</v>
       </c>
       <c r="I36">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="J36" t="s">
         <v>18</v>
       </c>
       <c r="K36">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
       </c>
       <c r="C37">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F37">
-        <v>6192.93</v>
+        <v>3722.86</v>
       </c>
       <c r="G37">
-        <v>1799</v>
+        <v>1185</v>
       </c>
       <c r="H37">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="I37">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="J37" t="s">
         <v>18</v>
       </c>
       <c r="K37">
-        <v>971</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
       </c>
       <c r="C38">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F38">
         <v>3775</v>
@@ -2512,123 +2527,123 @@
         <v>3.48</v>
       </c>
       <c r="I38">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="J38" t="s">
         <v>18</v>
       </c>
       <c r="K38">
-        <v>623</v>
+        <v>706</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
       </c>
       <c r="C39">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F39">
-        <v>5288.07</v>
+        <v>2050</v>
       </c>
       <c r="G39">
-        <v>1495</v>
+        <v>564</v>
       </c>
       <c r="H39">
-        <v>3.54</v>
+        <v>3.63</v>
       </c>
       <c r="I39">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="J39" t="s">
         <v>18</v>
       </c>
       <c r="K39">
-        <v>948</v>
+        <v>456</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
         <v>25</v>
       </c>
       <c r="C40">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F40">
-        <v>2050</v>
+        <v>4575</v>
       </c>
       <c r="G40">
-        <v>564</v>
+        <v>1129</v>
       </c>
       <c r="H40">
-        <v>3.63</v>
+        <v>4.05</v>
       </c>
       <c r="I40">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="J40" t="s">
         <v>18</v>
       </c>
       <c r="K40">
-        <v>413</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
         <v>25</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F41">
-        <v>4190.08</v>
+        <v>3604.58</v>
       </c>
       <c r="G41">
-        <v>1084</v>
+        <v>878</v>
       </c>
       <c r="H41">
-        <v>3.87</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="I41">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="J41" t="s">
         <v>18</v>
       </c>
       <c r="K41">
-        <v>1043</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
@@ -2637,33 +2652,33 @@
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F42">
-        <v>1590</v>
+        <v>462</v>
       </c>
       <c r="G42">
-        <v>399</v>
+        <v>255</v>
       </c>
       <c r="H42">
-        <v>3.98</v>
+        <v>1.81</v>
       </c>
       <c r="I42">
-        <v>2.9</v>
+        <v>3.09</v>
       </c>
       <c r="J42" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K42">
-        <v>432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
         <v>25</v>
@@ -2672,103 +2687,103 @@
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E43" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F43">
-        <v>940.81</v>
+        <v>3810</v>
       </c>
       <c r="G43">
-        <v>236</v>
+        <v>1615</v>
       </c>
       <c r="H43">
-        <v>3.99</v>
+        <v>2.36</v>
       </c>
       <c r="I43">
-        <v>2.9</v>
+        <v>3.09</v>
       </c>
       <c r="J43" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K43">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
         <v>25</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F44">
-        <v>4575</v>
+        <v>5560.24</v>
       </c>
       <c r="G44">
-        <v>1129</v>
+        <v>2230</v>
       </c>
       <c r="H44">
-        <v>4.05</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="I44">
-        <v>2.9</v>
+        <v>3.09</v>
       </c>
       <c r="J44" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K44">
-        <v>1298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
         <v>25</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="E45" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F45">
-        <v>3604.58</v>
+        <v>3495</v>
       </c>
       <c r="G45">
-        <v>878</v>
+        <v>1350</v>
       </c>
       <c r="H45">
-        <v>4.1100000000000003</v>
+        <v>2.59</v>
       </c>
       <c r="I45">
-        <v>2.9</v>
+        <v>3.09</v>
       </c>
       <c r="J45" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K45">
-        <v>1056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
         <v>25</v>
@@ -2777,57 +2792,57 @@
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E46" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F46">
-        <v>2504</v>
+        <v>2490</v>
       </c>
       <c r="G46">
-        <v>557</v>
+        <v>944.56</v>
       </c>
       <c r="H46">
-        <v>4.5</v>
+        <v>2.64</v>
       </c>
       <c r="I46">
-        <v>2.9</v>
+        <v>3.09</v>
       </c>
       <c r="J46" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K46">
-        <v>887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
       </c>
       <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
         <v>28</v>
       </c>
-      <c r="D47" t="s">
-        <v>88</v>
-      </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F47">
-        <v>9700</v>
+        <v>993.87</v>
       </c>
       <c r="G47">
-        <v>835.60000000000036</v>
+        <v>355</v>
       </c>
       <c r="H47">
-        <v>11.61</v>
+        <v>2.8</v>
       </c>
       <c r="I47">
-        <v>11.65</v>
+        <v>3.09</v>
       </c>
       <c r="J47" t="s">
         <v>15</v>
@@ -2838,66 +2853,66 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
         <v>25</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F48">
-        <v>6129</v>
+        <v>4620.75</v>
       </c>
       <c r="G48">
-        <v>524</v>
+        <v>1611</v>
       </c>
       <c r="H48">
-        <v>11.7</v>
+        <v>2.87</v>
       </c>
       <c r="I48">
-        <v>11.65</v>
+        <v>3.09</v>
       </c>
       <c r="J48" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K48">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
       </c>
       <c r="C49">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F49">
-        <v>4730</v>
+        <v>715</v>
       </c>
       <c r="G49">
-        <v>568</v>
+        <v>231.2</v>
       </c>
       <c r="H49">
-        <v>8.33</v>
+        <v>3.09</v>
       </c>
       <c r="I49">
-        <v>10.29</v>
+        <v>3.09</v>
       </c>
       <c r="J49" t="s">
         <v>15</v>
@@ -2908,276 +2923,276 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
         <v>25</v>
       </c>
       <c r="C50">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F50">
-        <v>2761</v>
+        <v>1145</v>
       </c>
       <c r="G50">
-        <v>322.00000000000028</v>
+        <v>357</v>
       </c>
       <c r="H50">
-        <v>8.57</v>
+        <v>3.21</v>
       </c>
       <c r="I50">
-        <v>10.29</v>
+        <v>3.09</v>
       </c>
       <c r="J50" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
       </c>
       <c r="C51">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="E51" t="s">
         <v>97</v>
       </c>
       <c r="F51">
-        <v>6700</v>
+        <v>6192.93</v>
       </c>
       <c r="G51">
-        <v>651</v>
+        <v>1799</v>
       </c>
       <c r="H51">
-        <v>10.29</v>
+        <v>3.44</v>
       </c>
       <c r="I51">
-        <v>10.29</v>
+        <v>3.09</v>
       </c>
       <c r="J51" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>629</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
         <v>25</v>
       </c>
       <c r="C52">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D52" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" t="s">
         <v>98</v>
       </c>
-      <c r="E52" t="s">
-        <v>99</v>
-      </c>
       <c r="F52">
-        <v>14035</v>
+        <v>5288.07</v>
       </c>
       <c r="G52">
-        <v>1246.5</v>
+        <v>1495</v>
       </c>
       <c r="H52">
-        <v>11.26</v>
+        <v>3.54</v>
       </c>
       <c r="I52">
-        <v>10.29</v>
+        <v>3.09</v>
       </c>
       <c r="J52" t="s">
         <v>18</v>
       </c>
       <c r="K52">
-        <v>1206</v>
+        <v>665</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B53" t="s">
         <v>25</v>
       </c>
       <c r="C53">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F53">
-        <v>24040.87</v>
+        <v>4190.08</v>
       </c>
       <c r="G53">
-        <v>2042</v>
+        <v>1084</v>
       </c>
       <c r="H53">
-        <v>11.77</v>
+        <v>3.87</v>
       </c>
       <c r="I53">
-        <v>10.29</v>
+        <v>3.09</v>
       </c>
       <c r="J53" t="s">
         <v>18</v>
       </c>
       <c r="K53">
-        <v>3025</v>
+        <v>838</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
         <v>25</v>
       </c>
       <c r="C54">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="E54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F54">
-        <v>504.25</v>
+        <v>1590</v>
       </c>
       <c r="G54">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H54">
-        <v>1.26</v>
+        <v>3.98</v>
       </c>
       <c r="I54">
-        <v>1.83</v>
+        <v>3.09</v>
       </c>
       <c r="J54" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B55" t="s">
         <v>25</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="E55" t="s">
         <v>103</v>
       </c>
       <c r="F55">
-        <v>750.74</v>
+        <v>940.81</v>
       </c>
       <c r="G55">
-        <v>558</v>
+        <v>236</v>
       </c>
       <c r="H55">
-        <v>1.35</v>
+        <v>3.99</v>
       </c>
       <c r="I55">
-        <v>1.83</v>
+        <v>3.09</v>
       </c>
       <c r="J55" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B56" t="s">
         <v>25</v>
       </c>
       <c r="C56">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="E56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F56">
-        <v>220.36</v>
+        <v>2504</v>
       </c>
       <c r="G56">
-        <v>159</v>
+        <v>557</v>
       </c>
       <c r="H56">
-        <v>1.39</v>
+        <v>4.5</v>
       </c>
       <c r="I56">
-        <v>1.83</v>
+        <v>3.09</v>
       </c>
       <c r="J56" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>781</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s">
         <v>25</v>
       </c>
       <c r="C57">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E57" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F57">
-        <v>698</v>
+        <v>5630.86</v>
       </c>
       <c r="G57">
-        <v>473</v>
+        <v>3519</v>
       </c>
       <c r="H57">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="I57">
-        <v>1.83</v>
+        <v>2.64</v>
       </c>
       <c r="J57" t="s">
         <v>15</v>
@@ -3188,66 +3203,66 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
         <v>25</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F58">
-        <v>902</v>
+        <v>1349.22</v>
       </c>
       <c r="G58">
-        <v>600.09999999999945</v>
+        <v>367</v>
       </c>
       <c r="H58">
-        <v>1.5</v>
+        <v>3.68</v>
       </c>
       <c r="I58">
-        <v>1.83</v>
+        <v>2.64</v>
       </c>
       <c r="J58" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B59" t="s">
         <v>25</v>
       </c>
       <c r="C59">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F59">
-        <v>748.56</v>
+        <v>1372.26</v>
       </c>
       <c r="G59">
-        <v>460</v>
+        <v>538</v>
       </c>
       <c r="H59">
-        <v>1.63</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="I59">
-        <v>1.83</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="J59" t="s">
         <v>15</v>
@@ -3258,31 +3273,31 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B60" t="s">
         <v>25</v>
       </c>
       <c r="C60">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F60">
-        <v>1078.1500000000001</v>
+        <v>1455.2</v>
       </c>
       <c r="G60">
-        <v>589</v>
+        <v>555</v>
       </c>
       <c r="H60">
-        <v>1.83</v>
+        <v>2.62</v>
       </c>
       <c r="I60">
-        <v>1.83</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="J60" t="s">
         <v>15</v>
@@ -3293,229 +3308,229 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B61" t="s">
         <v>25</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E61" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F61">
-        <v>3236.46</v>
+        <v>6851.94</v>
       </c>
       <c r="G61">
-        <v>1688</v>
+        <v>2208</v>
       </c>
       <c r="H61">
-        <v>1.92</v>
+        <v>3.1</v>
       </c>
       <c r="I61">
-        <v>1.83</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="J61" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K61">
-        <v>147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B62" t="s">
         <v>25</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E62" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F62">
-        <v>208.06</v>
+        <v>5126.62</v>
       </c>
       <c r="G62">
-        <v>105</v>
+        <v>1094</v>
       </c>
       <c r="H62">
-        <v>1.98</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="I62">
-        <v>1.83</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="J62" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K62">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B63" t="s">
         <v>25</v>
       </c>
       <c r="C63">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F63">
-        <v>925</v>
+        <v>9075.77</v>
       </c>
       <c r="G63">
-        <v>418</v>
+        <v>1582</v>
       </c>
       <c r="H63">
-        <v>2.21</v>
+        <v>5.74</v>
       </c>
       <c r="I63">
-        <v>1.83</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="J63" t="s">
         <v>18</v>
       </c>
       <c r="K63">
-        <v>160</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
         <v>25</v>
       </c>
       <c r="C64">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E64" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F64">
-        <v>4064.79</v>
+        <v>6364.47</v>
       </c>
       <c r="G64">
-        <v>1768</v>
+        <v>1057</v>
       </c>
       <c r="H64">
-        <v>2.2999999999999998</v>
+        <v>6.02</v>
       </c>
       <c r="I64">
-        <v>1.83</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="J64" t="s">
         <v>18</v>
       </c>
       <c r="K64">
-        <v>829</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B65" t="s">
         <v>25</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E65" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F65">
-        <v>315</v>
+        <v>7969.38</v>
       </c>
       <c r="G65">
-        <v>130.30000000000001</v>
+        <v>1209</v>
       </c>
       <c r="H65">
-        <v>2.42</v>
+        <v>6.59</v>
       </c>
       <c r="I65">
-        <v>1.83</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="J65" t="s">
         <v>18</v>
       </c>
       <c r="K65">
-        <v>76</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="B66" t="s">
         <v>25</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E66" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F66">
-        <v>12945</v>
+        <v>5098</v>
       </c>
       <c r="G66">
-        <v>1951</v>
+        <v>925.70000000000027</v>
       </c>
       <c r="H66">
-        <v>6.64</v>
+        <v>5.51</v>
       </c>
       <c r="I66">
-        <v>1.83</v>
+        <v>5.51</v>
       </c>
       <c r="J66" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K66">
-        <v>9374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C67">
         <v>42</v>
       </c>
       <c r="D67" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="E67" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F67">
         <v>23694</v>
@@ -3538,19 +3553,19 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C68">
         <v>42</v>
       </c>
       <c r="D68" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="E68" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F68">
         <v>25070</v>
@@ -3573,19 +3588,19 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C69">
         <v>42</v>
       </c>
       <c r="D69" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="E69" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F69">
         <v>18312</v>
@@ -3608,19 +3623,19 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C70">
         <v>42</v>
       </c>
       <c r="D70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E70" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F70">
         <v>42484.29</v>
@@ -3643,19 +3658,19 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C71">
         <v>42</v>
       </c>
       <c r="D71" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E71" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F71">
         <v>28635.56</v>
@@ -3678,19 +3693,19 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C72">
         <v>45</v>
       </c>
       <c r="D72" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E72" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F72">
         <v>6943</v>
@@ -3713,19 +3728,19 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C73">
         <v>45</v>
       </c>
       <c r="D73" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E73" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F73">
         <v>15137</v>
@@ -3748,19 +3763,19 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C74">
         <v>45</v>
       </c>
       <c r="D74" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E74" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F74">
         <v>43127.7</v>
@@ -3783,19 +3798,19 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B75" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C75">
         <v>45</v>
       </c>
       <c r="D75" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="E75" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F75">
         <v>33529</v>
@@ -3818,19 +3833,19 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B76" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C76">
         <v>45</v>
       </c>
       <c r="D76" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="E76" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F76">
         <v>20585</v>
@@ -3853,19 +3868,19 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B77" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C77">
         <v>45</v>
       </c>
       <c r="D77" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="E77" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F77">
         <v>27855</v>
@@ -3888,19 +3903,19 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B78" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C78">
         <v>45</v>
       </c>
       <c r="D78" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E78" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F78">
         <v>47960.94</v>
@@ -3923,19 +3938,19 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B79" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C79">
         <v>45</v>
       </c>
       <c r="D79" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E79" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F79">
         <v>29700</v>
@@ -3958,19 +3973,19 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B80" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C80">
         <v>45</v>
       </c>
       <c r="D80" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E80" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F80">
         <v>50998.93</v>
@@ -3993,19 +4008,19 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B81" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C81">
         <v>45</v>
       </c>
       <c r="D81" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="E81" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F81">
         <v>19500</v>
@@ -4028,19 +4043,19 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B82" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C82">
         <v>45</v>
       </c>
       <c r="D82" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F82">
         <v>50796.29</v>
@@ -4063,19 +4078,19 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B83" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C83">
         <v>45</v>
       </c>
       <c r="D83" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E83" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F83">
         <v>38926</v>
@@ -4098,19 +4113,19 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B84" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C84">
         <v>45</v>
       </c>
       <c r="D84" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E84" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F84">
         <v>39003.120000000003</v>
@@ -4133,19 +4148,19 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B85" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C85">
         <v>45</v>
       </c>
       <c r="D85" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E85" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F85">
         <v>64503.69</v>
@@ -4168,19 +4183,19 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B86" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C86">
         <v>45</v>
       </c>
       <c r="D86" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E86" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F86">
         <v>43211.72</v>
@@ -4203,19 +4218,19 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B87" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C87">
         <v>45</v>
       </c>
       <c r="D87" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E87" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F87">
         <v>7316</v>
@@ -4238,19 +4253,19 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B88" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C88">
         <v>45</v>
       </c>
       <c r="D88" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E88" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F88">
         <v>58801</v>
@@ -4273,19 +4288,19 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B89" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C89">
         <v>45</v>
       </c>
       <c r="D89" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E89" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F89">
         <v>17885</v>
@@ -4308,19 +4323,19 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B90" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C90">
         <v>45</v>
       </c>
       <c r="D90" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E90" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F90">
         <v>25428.94</v>
@@ -4343,19 +4358,19 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B91" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C91">
         <v>45</v>
       </c>
       <c r="D91" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E91" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F91">
         <v>55200.07</v>
@@ -4378,19 +4393,19 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B92" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C92">
         <v>45</v>
       </c>
       <c r="D92" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E92" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F92">
         <v>59566</v>
@@ -4413,19 +4428,19 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B93" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C93">
         <v>45</v>
       </c>
       <c r="D93" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E93" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F93">
         <v>49834.239999999998</v>
@@ -4448,19 +4463,19 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B94" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C94">
         <v>45</v>
       </c>
       <c r="D94" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E94" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F94">
         <v>70818.649999999994</v>
@@ -4483,19 +4498,19 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B95" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C95">
         <v>45</v>
       </c>
       <c r="D95" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E95" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F95">
         <v>39546.21</v>
@@ -4518,19 +4533,19 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B96" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C96">
         <v>45</v>
       </c>
       <c r="D96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E96" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F96">
         <v>31173.93</v>
@@ -4553,19 +4568,19 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B97" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C97">
         <v>45</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E97" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F97">
         <v>60370.98</v>
@@ -4588,19 +4603,19 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B98" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C98">
         <v>45</v>
       </c>
       <c r="D98" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E98" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F98">
         <v>20350</v>
@@ -4623,19 +4638,19 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B99" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C99">
         <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="E99" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F99">
         <v>209.73</v>
@@ -4658,19 +4673,19 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B100" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C100">
         <v>5</v>
       </c>
       <c r="D100" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E100" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F100">
         <v>9649.9699999999993</v>
@@ -4693,19 +4708,19 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B101" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C101">
         <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E101" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F101">
         <v>26410.080000000002</v>
@@ -4728,19 +4743,19 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B102" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C102">
         <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E102" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F102">
         <v>19427.830000000002</v>
@@ -4763,19 +4778,19 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B103" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C103">
         <v>8</v>
       </c>
       <c r="D103" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E103" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F103">
         <v>37725.910000000003</v>
@@ -4798,19 +4813,19 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B104" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C104">
         <v>40</v>
       </c>
       <c r="D104" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E104" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F104">
         <v>820.44</v>
@@ -4833,19 +4848,19 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B105" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C105">
         <v>42</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E105" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F105">
         <v>2905</v>
@@ -4868,19 +4883,19 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B106" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C106">
         <v>37</v>
       </c>
       <c r="D106" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E106" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F106">
         <v>11600</v>
@@ -4903,19 +4918,19 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B107" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C107">
         <v>42</v>
       </c>
       <c r="D107" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="E107" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F107">
         <v>8146</v>
@@ -4938,19 +4953,19 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B108" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C108">
         <v>40</v>
       </c>
       <c r="D108" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E108" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F108">
         <v>4385</v>
@@ -4973,19 +4988,19 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B109" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C109">
         <v>40</v>
       </c>
       <c r="D109" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="E109" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F109">
         <v>2062</v>
@@ -5008,19 +5023,19 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B110" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C110">
         <v>40</v>
       </c>
       <c r="D110" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E110" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F110">
         <v>17515.59</v>
@@ -5043,19 +5058,19 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B111" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C111">
         <v>40</v>
       </c>
       <c r="D111" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E111" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F111">
         <v>18777.650000000001</v>
@@ -5078,19 +5093,19 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B112" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C112">
         <v>40</v>
       </c>
       <c r="D112" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E112" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F112">
         <v>18030.87</v>
@@ -5113,19 +5128,19 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B113" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C113">
         <v>40</v>
       </c>
       <c r="D113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E113" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F113">
         <v>15936.9</v>
@@ -5148,19 +5163,19 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B114" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C114">
         <v>40</v>
       </c>
       <c r="D114" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E114" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F114">
         <v>16424.25</v>
@@ -5183,19 +5198,19 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B115" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C115">
         <v>40</v>
       </c>
       <c r="D115" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E115" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F115">
         <v>18229.400000000001</v>
@@ -5218,19 +5233,19 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B116" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C116">
         <v>40</v>
       </c>
       <c r="D116" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="E116" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F116">
         <v>11625</v>
@@ -5253,19 +5268,19 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B117" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C117">
         <v>40</v>
       </c>
       <c r="D117" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="E117" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F117">
         <v>10470</v>
@@ -5288,19 +5303,19 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B118" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C118">
         <v>40</v>
       </c>
       <c r="D118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E118" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F118">
         <v>14790.16</v>
@@ -5323,19 +5338,19 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B119" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C119">
         <v>40</v>
       </c>
       <c r="D119" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E119" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F119">
         <v>16735.310000000001</v>
@@ -5358,19 +5373,19 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B120" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C120">
         <v>40</v>
       </c>
       <c r="D120" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E120" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F120">
         <v>13677.95</v>
@@ -5393,19 +5408,19 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B121" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C121">
         <v>40</v>
       </c>
       <c r="D121" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E121" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F121">
         <v>17296.53</v>
@@ -5428,19 +5443,19 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B122" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C122">
         <v>40</v>
       </c>
       <c r="D122" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E122" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F122">
         <v>1920</v>
@@ -5463,19 +5478,19 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B123" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C123">
         <v>40</v>
       </c>
       <c r="D123" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E123" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F123">
         <v>18941</v>
@@ -5498,19 +5513,19 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B124" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C124">
         <v>40</v>
       </c>
       <c r="D124" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E124" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F124">
         <v>9335.36</v>
@@ -5533,19 +5548,19 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B125" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C125">
         <v>40</v>
       </c>
       <c r="D125" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="E125" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F125">
         <v>12565</v>
@@ -5568,19 +5583,19 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B126" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C126">
         <v>40</v>
       </c>
       <c r="D126" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E126" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F126">
         <v>22122.63</v>
@@ -5603,19 +5618,19 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B127" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C127">
         <v>40</v>
       </c>
       <c r="D127" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E127" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F127">
         <v>17225.689999999999</v>
@@ -5638,19 +5653,19 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B128" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C128">
         <v>40</v>
       </c>
       <c r="D128" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E128" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F128">
         <v>20879.95</v>
@@ -5673,19 +5688,19 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B129" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C129">
         <v>40</v>
       </c>
       <c r="D129" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E129" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F129">
         <v>19893.66</v>
@@ -5708,19 +5723,19 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B130" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C130">
         <v>40</v>
       </c>
       <c r="D130" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E130" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F130">
         <v>20146.310000000001</v>
@@ -5743,19 +5758,19 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B131" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C131">
         <v>40</v>
       </c>
       <c r="D131" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E131" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F131">
         <v>22529.22</v>
@@ -5778,19 +5793,19 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B132" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C132">
         <v>40</v>
       </c>
       <c r="D132" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E132" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F132">
         <v>27084.01</v>
@@ -5813,19 +5828,19 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B133" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C133">
         <v>40</v>
       </c>
       <c r="D133" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E133" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F133">
         <v>22343.85</v>
@@ -5848,19 +5863,19 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B134" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C134">
         <v>40</v>
       </c>
       <c r="D134" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E134" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F134">
         <v>22956.67</v>
@@ -5883,19 +5898,19 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B135" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C135">
         <v>40</v>
       </c>
       <c r="D135" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E135" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F135">
         <v>25688.14</v>
@@ -5918,19 +5933,19 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B136" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C136">
         <v>40</v>
       </c>
       <c r="D136" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E136" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F136">
         <v>6577.7000000000007</v>
@@ -5953,19 +5968,19 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B137" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C137">
         <v>40</v>
       </c>
       <c r="D137" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E137" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F137">
         <v>18777.66</v>
@@ -5988,19 +6003,19 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B138" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C138">
         <v>40</v>
       </c>
       <c r="D138" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E138" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F138">
         <v>24644.01</v>
@@ -6023,19 +6038,19 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B139" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C139">
         <v>40</v>
       </c>
       <c r="D139" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E139" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F139">
         <v>20417.77</v>
@@ -6058,19 +6073,19 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B140" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C140">
         <v>40</v>
       </c>
       <c r="D140" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E140" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F140">
         <v>21106.98</v>
@@ -6093,19 +6108,19 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B141" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C141">
         <v>40</v>
       </c>
       <c r="D141" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E141" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F141">
         <v>20634.28</v>
@@ -6128,19 +6143,19 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B142" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C142">
         <v>40</v>
       </c>
       <c r="D142" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="E142" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F142">
         <v>4390</v>
@@ -6163,19 +6178,19 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B143" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C143">
         <v>40</v>
       </c>
       <c r="D143" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E143" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F143">
         <v>3458</v>
@@ -6198,19 +6213,19 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B144" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C144">
         <v>40</v>
       </c>
       <c r="D144" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E144" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F144">
         <v>50</v>
@@ -6233,19 +6248,19 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B145" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C145">
         <v>40</v>
       </c>
       <c r="D145" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E145" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F145">
         <v>1442</v>
@@ -6268,19 +6283,19 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B146" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C146">
         <v>40</v>
       </c>
       <c r="D146" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E146" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F146">
         <v>14701.57</v>
@@ -6303,19 +6318,19 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B147" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C147">
         <v>40</v>
       </c>
       <c r="D147" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E147" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F147">
         <v>7583</v>
@@ -6338,19 +6353,19 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B148" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C148">
         <v>40</v>
       </c>
       <c r="D148" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E148" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F148">
         <v>2600</v>
@@ -6373,19 +6388,19 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B149" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C149">
         <v>40</v>
       </c>
       <c r="D149" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="E149" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F149">
         <v>5231</v>
@@ -6414,16 +6429,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
@@ -6435,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -6455,19 +6471,19 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>3006</v>
+        <v>138085.46</v>
       </c>
       <c r="D2">
-        <v>454.09999999999991</v>
+        <v>23436</v>
       </c>
       <c r="E2">
-        <v>6.62</v>
+        <v>5.86</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6475,19 +6491,19 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>138085.46</v>
+        <v>3006</v>
       </c>
       <c r="D3">
-        <v>23436</v>
+        <v>454.09999999999991</v>
       </c>
       <c r="E3">
-        <v>5.86</v>
+        <v>6.62</v>
       </c>
       <c r="F3">
-        <v>1257</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6495,267 +6511,346 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>63201.62</v>
+        <v>12907.9</v>
       </c>
       <c r="D4">
-        <v>15819.1</v>
+        <v>2764.4</v>
       </c>
       <c r="E4">
-        <v>4.6900000000000004</v>
+        <v>5.22</v>
       </c>
       <c r="F4">
-        <v>7179</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>78228.820000000007</v>
+        <v>15829</v>
       </c>
       <c r="D5">
-        <v>25635.759999999998</v>
+        <v>1359.6</v>
       </c>
       <c r="E5">
-        <v>2.9</v>
+        <v>11.65</v>
       </c>
       <c r="F5">
-        <v>8363</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>15829</v>
+        <v>52266.87</v>
       </c>
       <c r="D6">
-        <v>1359.6</v>
+        <v>4829.5</v>
       </c>
       <c r="E6">
-        <v>11.65</v>
+        <v>10.29</v>
       </c>
       <c r="F6">
-        <v>23</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>52266.87</v>
+        <v>26596.37</v>
       </c>
       <c r="D7">
-        <v>4829.5</v>
+        <v>9300.4</v>
       </c>
       <c r="E7">
-        <v>10.29</v>
+        <v>1.83</v>
       </c>
       <c r="F7">
-        <v>4231</v>
+        <v>10602</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>26596.37</v>
+        <v>34231.07</v>
       </c>
       <c r="D8">
-        <v>9300.4</v>
+        <v>11117</v>
       </c>
       <c r="E8">
-        <v>1.83</v>
+        <v>2.83</v>
       </c>
       <c r="F8">
-        <v>10602</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>138195.85</v>
+        <v>43997.75</v>
       </c>
       <c r="D9">
-        <v>10773</v>
+        <v>14518.76</v>
       </c>
       <c r="E9">
-        <v>12.56</v>
+        <v>3.09</v>
       </c>
       <c r="F9">
-        <v>13186</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B10">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>1028068.41</v>
+        <v>6980.08</v>
       </c>
       <c r="D10">
-        <v>68466.3</v>
+        <v>3886</v>
       </c>
       <c r="E10">
-        <v>15.07</v>
+        <v>2.64</v>
       </c>
       <c r="F10">
-        <v>64791</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>9859.6999999999989</v>
+        <v>38215.64</v>
       </c>
       <c r="D11">
-        <v>1729</v>
+        <v>8243</v>
       </c>
       <c r="E11">
-        <v>3.76</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="F11">
-        <v>4377</v>
+        <v>5377</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>83563.820000000007</v>
+        <v>5098</v>
       </c>
       <c r="D12">
-        <v>10400</v>
+        <v>925.70000000000027</v>
       </c>
       <c r="E12">
-        <v>7.81</v>
+        <v>5.51</v>
       </c>
       <c r="F12">
-        <v>2781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>23471.439999999999</v>
+        <v>138195.85</v>
       </c>
       <c r="D13">
-        <v>5537.1</v>
+        <v>10773</v>
       </c>
       <c r="E13">
-        <v>11.63</v>
+        <v>12.56</v>
       </c>
       <c r="F13">
-        <v>5205</v>
+        <v>13186</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="B14">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>571746.5</v>
+        <v>1028068.41</v>
       </c>
       <c r="D14">
-        <v>115305.60000000001</v>
+        <v>68466.3</v>
       </c>
       <c r="E14">
-        <v>4.49</v>
+        <v>15.07</v>
       </c>
       <c r="F14">
-        <v>100711</v>
+        <v>64791</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>9859.6999999999989</v>
+      </c>
+      <c r="D15">
+        <v>1729</v>
+      </c>
+      <c r="E15">
+        <v>3.76</v>
+      </c>
+      <c r="F15">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>83563.820000000007</v>
+      </c>
+      <c r="D16">
+        <v>10400</v>
+      </c>
+      <c r="E16">
+        <v>7.81</v>
+      </c>
+      <c r="F16">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>23471.439999999999</v>
+      </c>
+      <c r="D17">
+        <v>5537.1</v>
+      </c>
+      <c r="E17">
+        <v>11.63</v>
+      </c>
+      <c r="F17">
+        <v>5205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>571746.5</v>
+      </c>
+      <c r="D18">
+        <v>115305.60000000001</v>
+      </c>
+      <c r="E18">
+        <v>4.49</v>
+      </c>
+      <c r="F18">
+        <v>100711</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B19">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="C19">
         <v>39455.57</v>
       </c>
-      <c r="D15">
+      <c r="D19">
         <v>11124.5</v>
       </c>
-      <c r="E15">
+      <c r="E19">
         <v>3.49</v>
       </c>
-      <c r="F15">
+      <c r="F19">
         <v>7322</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:F19" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6763,920 +6858,782 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>4948</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>4792</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1072.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>3901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" t="s">
+        <v>240</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" t="s">
+        <v>243</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" t="s">
+        <v>247</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>4822</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" t="s">
+        <v>249</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>4840</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" t="s">
+        <v>250</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" t="s">
+        <v>251</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>5566</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" t="s">
+        <v>253</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" t="s">
+        <v>254</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" t="s">
+        <v>255</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>4949</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" t="s">
+        <v>256</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>4676</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" t="s">
+        <v>257</v>
+      </c>
+      <c r="D39">
+        <v>85</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" t="s">
+        <v>258</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>259</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>545.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B42" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="C42" t="s">
+        <v>260</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
         <v>135.1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1072.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C43" t="s">
+        <v>261</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>848.29999999999973</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>545.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>848.29999999999973</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7">
+      <c r="C46" t="s">
+        <v>264</v>
+      </c>
+      <c r="D46">
         <v>27.79</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>223</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>4507</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>4248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>225</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>3908</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>168</v>
-      </c>
-      <c r="B13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>226</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>4463</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>168</v>
-      </c>
-      <c r="B14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>227</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>4489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>228</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>4948</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>229</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>4420</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>4792</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>231</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>3665</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>168</v>
-      </c>
-      <c r="B19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>232</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>2613</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>233</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" t="s">
-        <v>234</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>3923</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s">
-        <v>235</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>3795</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>168</v>
-      </c>
-      <c r="B23" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
-        <v>236</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>3227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" t="s">
-        <v>237</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>3901</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" t="s">
-        <v>238</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>2835</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
-        <v>239</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>3565</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" t="s">
-        <v>240</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>2643</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" t="s">
-        <v>168</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" t="s">
-        <v>241</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>3387</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>168</v>
-      </c>
-      <c r="B29" t="s">
-        <v>168</v>
-      </c>
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" t="s">
-        <v>242</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>4344</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>168</v>
-      </c>
-      <c r="B30" t="s">
-        <v>168</v>
-      </c>
-      <c r="C30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" t="s">
-        <v>243</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>3789</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>168</v>
-      </c>
-      <c r="B31" t="s">
-        <v>168</v>
-      </c>
-      <c r="C31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" t="s">
-        <v>244</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>2858</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>168</v>
-      </c>
-      <c r="B32" t="s">
-        <v>168</v>
-      </c>
-      <c r="C32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" t="s">
-        <v>245</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>3485</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>168</v>
-      </c>
-      <c r="B33" t="s">
-        <v>168</v>
-      </c>
-      <c r="C33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" t="s">
-        <v>246</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>4822</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>168</v>
-      </c>
-      <c r="B34" t="s">
-        <v>168</v>
-      </c>
-      <c r="C34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" t="s">
-        <v>247</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>4364</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>168</v>
-      </c>
-      <c r="B35" t="s">
-        <v>168</v>
-      </c>
-      <c r="C35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" t="s">
-        <v>248</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>4840</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>168</v>
-      </c>
-      <c r="B36" t="s">
-        <v>168</v>
-      </c>
-      <c r="C36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" t="s">
-        <v>249</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>3383</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>168</v>
-      </c>
-      <c r="B37" t="s">
-        <v>168</v>
-      </c>
-      <c r="C37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" t="s">
-        <v>250</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>5566</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>168</v>
-      </c>
-      <c r="B38" t="s">
-        <v>168</v>
-      </c>
-      <c r="C38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" t="s">
-        <v>251</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>4536</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>168</v>
-      </c>
-      <c r="B39" t="s">
-        <v>168</v>
-      </c>
-      <c r="C39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" t="s">
-        <v>252</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>4154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>168</v>
-      </c>
-      <c r="B40" t="s">
-        <v>168</v>
-      </c>
-      <c r="C40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" t="s">
-        <v>253</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>2683</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>168</v>
-      </c>
-      <c r="B41" t="s">
-        <v>168</v>
-      </c>
-      <c r="C41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" t="s">
-        <v>254</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>4949</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>168</v>
-      </c>
-      <c r="B42" t="s">
-        <v>168</v>
-      </c>
-      <c r="C42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" t="s">
-        <v>255</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>4676</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>168</v>
-      </c>
-      <c r="B43" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" t="s">
-        <v>256</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>2690</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>204</v>
-      </c>
-      <c r="B44" t="s">
-        <v>204</v>
-      </c>
-      <c r="C44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" t="s">
-        <v>257</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>204</v>
-      </c>
-      <c r="B45" t="s">
-        <v>204</v>
-      </c>
-      <c r="C45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" t="s">
-        <v>258</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>204</v>
-      </c>
-      <c r="B46" t="s">
-        <v>204</v>
-      </c>
-      <c r="C46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" t="s">
-        <v>259</v>
-      </c>
       <c r="E46">
-        <v>85</v>
-      </c>
-      <c r="F46">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F46" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A1:E46" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Benchmark_Per_Alat_Berat_Data_Baru.xlsx
+++ b/Benchmark_Per_Alat_Berat_Data_Baru.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\SPIL\bbm\Analisa BBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAEBE44-C669-4B2A-A9A9-DAD393A851B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE74B86E-24EB-414B-8301-146B72AB8CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rapor_Unit_Aktif" sheetId="1" r:id="rId1"/>
@@ -1188,7 +1188,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6422,7 +6422,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K149" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K149" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K149">
+      <sortCondition ref="A1:A149"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -6431,9 +6435,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6834,11 +6838,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6867,7 +6872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>172</v>
       </c>
@@ -6884,7 +6889,7 @@
         <v>4507</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>172</v>
       </c>
@@ -6901,7 +6906,7 @@
         <v>4248</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>172</v>
       </c>
@@ -6918,7 +6923,7 @@
         <v>3908</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>172</v>
       </c>
@@ -6935,7 +6940,7 @@
         <v>4463</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>172</v>
       </c>
@@ -6952,7 +6957,7 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -6969,7 +6974,7 @@
         <v>4948</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -6986,7 +6991,7 @@
         <v>4420</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>172</v>
       </c>
@@ -7003,7 +7008,7 @@
         <v>4792</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -7020,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -7037,7 +7042,7 @@
         <v>1072.3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -7054,7 +7059,7 @@
         <v>3665</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>172</v>
       </c>
@@ -7071,7 +7076,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>172</v>
       </c>
@@ -7088,7 +7093,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>172</v>
       </c>
@@ -7105,7 +7110,7 @@
         <v>3923</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>172</v>
       </c>
@@ -7139,7 +7144,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>172</v>
       </c>
@@ -7156,7 +7161,7 @@
         <v>3227</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>172</v>
       </c>
@@ -7173,7 +7178,7 @@
         <v>3901</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>172</v>
       </c>
@@ -7190,7 +7195,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>172</v>
       </c>
@@ -7207,7 +7212,7 @@
         <v>3565</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>172</v>
       </c>
@@ -7224,7 +7229,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>172</v>
       </c>
@@ -7241,7 +7246,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>172</v>
       </c>
@@ -7258,7 +7263,7 @@
         <v>4344</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>172</v>
       </c>
@@ -7292,7 +7297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>172</v>
       </c>
@@ -7309,7 +7314,7 @@
         <v>2858</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>172</v>
       </c>
@@ -7326,7 +7331,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>172</v>
       </c>
@@ -7343,7 +7348,7 @@
         <v>4822</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>172</v>
       </c>
@@ -7360,7 +7365,7 @@
         <v>4364</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>172</v>
       </c>
@@ -7377,7 +7382,7 @@
         <v>4840</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>172</v>
       </c>
@@ -7394,7 +7399,7 @@
         <v>3383</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>172</v>
       </c>
@@ -7411,7 +7416,7 @@
         <v>5566</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>172</v>
       </c>
@@ -7428,7 +7433,7 @@
         <v>4536</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>172</v>
       </c>
@@ -7445,7 +7450,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>172</v>
       </c>
@@ -7462,7 +7467,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>172</v>
       </c>
@@ -7479,7 +7484,7 @@
         <v>4949</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>172</v>
       </c>
@@ -7513,7 +7518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>172</v>
       </c>
@@ -7530,7 +7535,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -7547,7 +7552,7 @@
         <v>545.1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -7564,7 +7569,7 @@
         <v>135.1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -7581,7 +7586,7 @@
         <v>848.29999999999973</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -7598,7 +7603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>158</v>
       </c>
@@ -7615,7 +7620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -7633,7 +7638,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E46" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A1:E46" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="TRONTON"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Benchmark_Per_Alat_Berat_Data_Baru.xlsx
+++ b/Benchmark_Per_Alat_Berat_Data_Baru.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\SPIL\bbm\Analisa BBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE74B86E-24EB-414B-8301-146B72AB8CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C78466-9C41-44A3-940C-5E2963230D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rapor_Unit_Aktif" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rapor_Unit_Aktif!$A$1:$K$149</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Summary_Group!$A$1:$F$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Summary_Group!$A$1:$F$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Unit_Inaktif!$A$1:$E$46</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="258">
   <si>
     <t>Benchmark_Group</t>
   </si>
@@ -62,7 +62,7 @@
     <t>Potensi_Pemborosan_Liter</t>
   </si>
   <si>
-    <t>CRANE (41T)</t>
+    <t>CRANE (&lt; 100T)</t>
   </si>
   <si>
     <t>CRANE</t>
@@ -83,25 +83,22 @@
     <t>RG03</t>
   </si>
   <si>
+    <t>KAIMANA</t>
+  </si>
+  <si>
+    <t>CRANE LB 75 KANGGURU</t>
+  </si>
+  <si>
     <t>BOROS</t>
   </si>
   <si>
-    <t>CRANE LARGE (&gt;70T)</t>
-  </si>
-  <si>
-    <t>KAIMANA</t>
-  </si>
-  <si>
-    <t>CRANE LB 75 KANGGURU</t>
-  </si>
-  <si>
     <t>TUAL</t>
   </si>
   <si>
     <t>CRANE LB 80T LUCKY DOLPHIN</t>
   </si>
   <si>
-    <t>FORKLIFT (10T)</t>
+    <t>FORKLIFT (10-14T)</t>
   </si>
   <si>
     <t>FORKLIFT</t>
@@ -125,7 +122,244 @@
     <t>BANTENG 1</t>
   </si>
   <si>
-    <t>FORKLIFT (28T)</t>
+    <t>FORKLIFT (5-9T)</t>
+  </si>
+  <si>
+    <t>BKA</t>
+  </si>
+  <si>
+    <t>SAKURA</t>
+  </si>
+  <si>
+    <t>SAMARINDA</t>
+  </si>
+  <si>
+    <t>HATORI</t>
+  </si>
+  <si>
+    <t>DEPO PRIOK</t>
+  </si>
+  <si>
+    <t>SEMPATI</t>
+  </si>
+  <si>
+    <t>DEPO MM</t>
+  </si>
+  <si>
+    <t>MURAI</t>
+  </si>
+  <si>
+    <t>CAMAR</t>
+  </si>
+  <si>
+    <t>WINDU</t>
+  </si>
+  <si>
+    <t>CABANG AMBON</t>
+  </si>
+  <si>
+    <t>JATAYU</t>
+  </si>
+  <si>
+    <t>MERPATI</t>
+  </si>
+  <si>
+    <t>DEPO JAPFA</t>
+  </si>
+  <si>
+    <t>KASUARI</t>
+  </si>
+  <si>
+    <t>SERUI</t>
+  </si>
+  <si>
+    <t>KAMBOJA</t>
+  </si>
+  <si>
+    <t>ALPINE</t>
+  </si>
+  <si>
+    <t>BALIKPAPAN</t>
+  </si>
+  <si>
+    <t>ULIN</t>
+  </si>
+  <si>
+    <t>GARUDA</t>
+  </si>
+  <si>
+    <t>MERAK</t>
+  </si>
+  <si>
+    <t>DEPO MERAK</t>
+  </si>
+  <si>
+    <t>AKASIA</t>
+  </si>
+  <si>
+    <t>DEPO 4</t>
+  </si>
+  <si>
+    <t>ROBIN</t>
+  </si>
+  <si>
+    <t>DEPO MANOKWARI</t>
+  </si>
+  <si>
+    <t>CEMARA</t>
+  </si>
+  <si>
+    <t>TIMIKA</t>
+  </si>
+  <si>
+    <t>TREMBESI</t>
+  </si>
+  <si>
+    <t>BAU-BAU</t>
+  </si>
+  <si>
+    <t>GATUT KACA</t>
+  </si>
+  <si>
+    <t>FLAMINGO</t>
+  </si>
+  <si>
+    <t>PONTIANAK</t>
+  </si>
+  <si>
+    <t>TULIB</t>
+  </si>
+  <si>
+    <t>ELANG</t>
+  </si>
+  <si>
+    <t>PINUS</t>
+  </si>
+  <si>
+    <t>GIANT</t>
+  </si>
+  <si>
+    <t>PENYU</t>
+  </si>
+  <si>
+    <t>FORKLIFT (&lt; 5T)</t>
+  </si>
+  <si>
+    <t>PALEM</t>
+  </si>
+  <si>
+    <t>GLATIK</t>
+  </si>
+  <si>
+    <t>BERNARD BEAR</t>
+  </si>
+  <si>
+    <t>KANTIL</t>
+  </si>
+  <si>
+    <t>BANTENG 3</t>
+  </si>
+  <si>
+    <t>JAYAPURA</t>
+  </si>
+  <si>
+    <t>KUTILANG</t>
+  </si>
+  <si>
+    <t>FORKLIFT MITS KENANGA</t>
+  </si>
+  <si>
+    <t>JAKARTA</t>
+  </si>
+  <si>
+    <t>MANYAR</t>
+  </si>
+  <si>
+    <t>DEPO TELUK BAYUR</t>
+  </si>
+  <si>
+    <t>PERKUTUT</t>
+  </si>
+  <si>
+    <t>CENDET</t>
+  </si>
+  <si>
+    <t>MATAHARI</t>
+  </si>
+  <si>
+    <t>BANTENG 4</t>
+  </si>
+  <si>
+    <t>ATOZ</t>
+  </si>
+  <si>
+    <t>BANTENG 2</t>
+  </si>
+  <si>
+    <t>KETAPANG</t>
+  </si>
+  <si>
+    <t>SERUNI</t>
+  </si>
+  <si>
+    <t>KOLIBRI</t>
+  </si>
+  <si>
+    <t>KUDA PUTIH</t>
+  </si>
+  <si>
+    <t>KAKATUA</t>
+  </si>
+  <si>
+    <t>WERKUDORO</t>
+  </si>
+  <si>
+    <t>KENARI</t>
+  </si>
+  <si>
+    <t>PADI</t>
+  </si>
+  <si>
+    <t>BANJARMASIN</t>
+  </si>
+  <si>
+    <t>RANDU</t>
+  </si>
+  <si>
+    <t>WALET</t>
+  </si>
+  <si>
+    <t>JALAK</t>
+  </si>
+  <si>
+    <t>TARAKAN</t>
+  </si>
+  <si>
+    <t>PRENJAK</t>
+  </si>
+  <si>
+    <t>FORKLIFT (&gt;= 15T)</t>
+  </si>
+  <si>
+    <t>KENDARI</t>
+  </si>
+  <si>
+    <t>SCORPION</t>
+  </si>
+  <si>
+    <t>KALMAR 13</t>
+  </si>
+  <si>
+    <t>DEPO MARUNI</t>
+  </si>
+  <si>
+    <t>XAVIER</t>
+  </si>
+  <si>
+    <t>CABANG LUWUK</t>
+  </si>
+  <si>
+    <t>GAJAH TUNGGAL</t>
   </si>
   <si>
     <t>TERNATE</t>
@@ -137,262 +371,10 @@
     <t>RAFLESIA</t>
   </si>
   <si>
-    <t>FORKLIFT (32T)</t>
-  </si>
-  <si>
-    <t>KENDARI</t>
-  </si>
-  <si>
-    <t>SCORPION</t>
-  </si>
-  <si>
-    <t>JAYAPURA</t>
-  </si>
-  <si>
-    <t>KALMAR 13</t>
-  </si>
-  <si>
-    <t>DEPO MARUNI</t>
-  </si>
-  <si>
-    <t>XAVIER</t>
-  </si>
-  <si>
-    <t>CABANG LUWUK</t>
-  </si>
-  <si>
-    <t>GAJAH TUNGGAL</t>
-  </si>
-  <si>
-    <t>DEPO MERAK</t>
-  </si>
-  <si>
     <t>MAGNETO</t>
   </si>
   <si>
-    <t>FORKLIFT (3T)</t>
-  </si>
-  <si>
-    <t>DEPO PRIOK</t>
-  </si>
-  <si>
-    <t>GLATIK</t>
-  </si>
-  <si>
-    <t>DEPO 4</t>
-  </si>
-  <si>
-    <t>BERNARD BEAR</t>
-  </si>
-  <si>
-    <t>DEPO JAPFA</t>
-  </si>
-  <si>
-    <t>KANTIL</t>
-  </si>
-  <si>
-    <t>BKA</t>
-  </si>
-  <si>
-    <t>BANTENG 3</t>
-  </si>
-  <si>
-    <t>KUTILANG</t>
-  </si>
-  <si>
-    <t>FORKLIFT MITS KENANGA</t>
-  </si>
-  <si>
-    <t>JAKARTA</t>
-  </si>
-  <si>
-    <t>MANYAR</t>
-  </si>
-  <si>
-    <t>DEPO TELUK BAYUR</t>
-  </si>
-  <si>
-    <t>PERKUTUT</t>
-  </si>
-  <si>
-    <t>CENDET</t>
-  </si>
-  <si>
-    <t>BALIKPAPAN</t>
-  </si>
-  <si>
-    <t>MATAHARI</t>
-  </si>
-  <si>
-    <t>BANTENG 4</t>
-  </si>
-  <si>
-    <t>BANTENG 2</t>
-  </si>
-  <si>
-    <t>TARAKAN</t>
-  </si>
-  <si>
-    <t>PRENJAK</t>
-  </si>
-  <si>
-    <t>FORKLIFT (4T)</t>
-  </si>
-  <si>
-    <t>PALEM</t>
-  </si>
-  <si>
-    <t>ATOZ</t>
-  </si>
-  <si>
-    <t>KETAPANG</t>
-  </si>
-  <si>
-    <t>SERUNI</t>
-  </si>
-  <si>
-    <t>KOLIBRI</t>
-  </si>
-  <si>
-    <t>KUDA PUTIH</t>
-  </si>
-  <si>
-    <t>KAKATUA</t>
-  </si>
-  <si>
-    <t>WERKUDORO</t>
-  </si>
-  <si>
-    <t>KENARI</t>
-  </si>
-  <si>
-    <t>SAMARINDA</t>
-  </si>
-  <si>
-    <t>PADI</t>
-  </si>
-  <si>
-    <t>BANJARMASIN</t>
-  </si>
-  <si>
-    <t>RANDU</t>
-  </si>
-  <si>
-    <t>WALET</t>
-  </si>
-  <si>
-    <t>JALAK</t>
-  </si>
-  <si>
-    <t>FORKLIFT (5T)</t>
-  </si>
-  <si>
-    <t>SAKURA</t>
-  </si>
-  <si>
-    <t>HATORI</t>
-  </si>
-  <si>
-    <t>SEMPATI</t>
-  </si>
-  <si>
-    <t>CAMAR</t>
-  </si>
-  <si>
-    <t>CABANG AMBON</t>
-  </si>
-  <si>
-    <t>JATAYU</t>
-  </si>
-  <si>
-    <t>MERPATI</t>
-  </si>
-  <si>
-    <t>KASUARI</t>
-  </si>
-  <si>
-    <t>SERUI</t>
-  </si>
-  <si>
-    <t>KAMBOJA</t>
-  </si>
-  <si>
-    <t>ULIN</t>
-  </si>
-  <si>
-    <t>GARUDA</t>
-  </si>
-  <si>
-    <t>MERAK</t>
-  </si>
-  <si>
-    <t>ROBIN</t>
-  </si>
-  <si>
-    <t>DEPO MANOKWARI</t>
-  </si>
-  <si>
-    <t>CEMARA</t>
-  </si>
-  <si>
-    <t>TIMIKA</t>
-  </si>
-  <si>
-    <t>TREMBESI</t>
-  </si>
-  <si>
-    <t>BAU-BAU</t>
-  </si>
-  <si>
-    <t>GATUT KACA</t>
-  </si>
-  <si>
-    <t>FORKLIFT (6T)</t>
-  </si>
-  <si>
-    <t>PINUS</t>
-  </si>
-  <si>
-    <t>AKASIA</t>
-  </si>
-  <si>
-    <t>FORKLIFT (7T)</t>
-  </si>
-  <si>
-    <t>DEPO MM</t>
-  </si>
-  <si>
-    <t>MURAI</t>
-  </si>
-  <si>
-    <t>WINDU</t>
-  </si>
-  <si>
-    <t>ALPINE</t>
-  </si>
-  <si>
-    <t>FLAMINGO</t>
-  </si>
-  <si>
-    <t>ELANG</t>
-  </si>
-  <si>
-    <t>GIANT</t>
-  </si>
-  <si>
-    <t>PENYU</t>
-  </si>
-  <si>
-    <t>FORKLIFT (8T)</t>
-  </si>
-  <si>
-    <t>PONTIANAK</t>
-  </si>
-  <si>
-    <t>TULIB</t>
-  </si>
-  <si>
-    <t>REACH STACKER (42T)</t>
+    <t>REACH STACKER (&gt; 35T)</t>
   </si>
   <si>
     <t>REACH STACKER</t>
@@ -401,87 +383,84 @@
     <t>KALAMR5 KINGKONG 1</t>
   </si>
   <si>
+    <t>KALMAR 19</t>
+  </si>
+  <si>
+    <t>SMV</t>
+  </si>
+  <si>
     <t>KALMAR 4</t>
   </si>
   <si>
+    <t>TERMINAL TELUK LAMONG</t>
+  </si>
+  <si>
+    <t>KALMAR 22</t>
+  </si>
+  <si>
+    <t>KALMAR 14</t>
+  </si>
+  <si>
+    <t>KALMAR 7</t>
+  </si>
+  <si>
+    <t>KALMAR 16</t>
+  </si>
+  <si>
     <t>KALMAR1 GAJAH</t>
   </si>
   <si>
+    <t>KALMAR11 KINGKONG 2</t>
+  </si>
+  <si>
+    <t>KALMAR 15</t>
+  </si>
+  <si>
+    <t>KONECRANES</t>
+  </si>
+  <si>
+    <t>KALMAR 28</t>
+  </si>
+  <si>
+    <t>KALMAR 26</t>
+  </si>
+  <si>
+    <t>SANY KUPP</t>
+  </si>
+  <si>
     <t>KALMAR2 BISON</t>
   </si>
   <si>
+    <t>KALMAR 30</t>
+  </si>
+  <si>
+    <t>KALMAR 21</t>
+  </si>
+  <si>
+    <t>KALMAR 12</t>
+  </si>
+  <si>
+    <t>KALMAR 17</t>
+  </si>
+  <si>
+    <t>BELAWAN</t>
+  </si>
+  <si>
+    <t>KALMAR 25</t>
+  </si>
+  <si>
+    <t>KALMAR 24</t>
+  </si>
+  <si>
+    <t>KONECRANES 2</t>
+  </si>
+  <si>
+    <t>KONECRANES 3</t>
+  </si>
+  <si>
     <t>KALMAR 18</t>
   </si>
   <si>
-    <t>REACH STACKER (45T)</t>
-  </si>
-  <si>
-    <t>KALMAR 19</t>
-  </si>
-  <si>
-    <t>SMV</t>
-  </si>
-  <si>
-    <t>TERMINAL TELUK LAMONG</t>
-  </si>
-  <si>
-    <t>KALMAR 22</t>
-  </si>
-  <si>
-    <t>KALMAR 14</t>
-  </si>
-  <si>
-    <t>KALMAR 7</t>
-  </si>
-  <si>
-    <t>KALMAR 16</t>
-  </si>
-  <si>
-    <t>KALMAR11 KINGKONG 2</t>
-  </si>
-  <si>
-    <t>KALMAR 15</t>
-  </si>
-  <si>
-    <t>KONECRANES</t>
-  </si>
-  <si>
-    <t>KALMAR 28</t>
-  </si>
-  <si>
-    <t>KALMAR 26</t>
-  </si>
-  <si>
-    <t>SANY KUPP</t>
-  </si>
-  <si>
-    <t>KALMAR 30</t>
-  </si>
-  <si>
-    <t>KALMAR 21</t>
-  </si>
-  <si>
-    <t>KALMAR 12</t>
-  </si>
-  <si>
-    <t>KALMAR 17</t>
-  </si>
-  <si>
-    <t>BELAWAN</t>
-  </si>
-  <si>
-    <t>KALMAR 25</t>
-  </si>
-  <si>
-    <t>KALMAR 24</t>
-  </si>
-  <si>
-    <t>KONECRANES 2</t>
-  </si>
-  <si>
-    <t>KONECRANES 3</t>
-  </si>
-  <si>
     <t>KALMAR 31</t>
   </si>
   <si>
@@ -503,7 +482,7 @@
     <t>KALMAR 20</t>
   </si>
   <si>
-    <t>SIDE LOADER (5T)</t>
+    <t>SIDE LOADER (5-9T)</t>
   </si>
   <si>
     <t>SIDE LOADER</t>
@@ -515,9 +494,6 @@
     <t>SIDE LOADER BOSS 2</t>
   </si>
   <si>
-    <t>SIDE LOADER (8T)</t>
-  </si>
-  <si>
     <t>SIDE LOADER 3</t>
   </si>
   <si>
@@ -527,18 +503,18 @@
     <t>SIDE LOUDER KALMAR</t>
   </si>
   <si>
-    <t>TOP LOADER (COMBINED 37-42T)</t>
+    <t>TOP LOADER (&gt; 35T)</t>
   </si>
   <si>
     <t>TOP LOADER</t>
   </si>
   <si>
+    <t>TYRANOSAURUS</t>
+  </si>
+  <si>
     <t>TOP LOADER MITS CENDRAWASIH</t>
   </si>
   <si>
-    <t>TYRANOSAURUS</t>
-  </si>
-  <si>
     <t>TITAN</t>
   </si>
   <si>
@@ -711,6 +687,9 @@
   </si>
   <si>
     <t>B 9976 KJ</t>
+  </si>
+  <si>
+    <t>CRANE (&gt;= 100T)</t>
   </si>
   <si>
     <t>CRANE P&amp;H 127 T KOMODO</t>
@@ -842,12 +821,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -877,11 +862,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1186,14 +1172,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
@@ -1243,31 +1229,31 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C2">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="F2">
-        <v>45242.37</v>
+        <v>123.41</v>
       </c>
       <c r="G2">
-        <v>7816</v>
+        <v>183</v>
       </c>
       <c r="H2">
-        <v>5.79</v>
+        <v>0.67</v>
       </c>
       <c r="I2">
-        <v>5.86</v>
+        <v>2.39</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -1277,102 +1263,102 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>46414.63</v>
-      </c>
-      <c r="G3">
-        <v>7916</v>
-      </c>
-      <c r="H3">
-        <v>5.86</v>
-      </c>
-      <c r="I3">
-        <v>5.86</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3">
+      <c r="A3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="2">
+        <v>209.73</v>
+      </c>
+      <c r="G3" s="2">
+        <v>175</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7.69</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="F4">
-        <v>46428.46</v>
+        <v>504.25</v>
       </c>
       <c r="G4">
-        <v>7704</v>
+        <v>401</v>
       </c>
       <c r="H4">
-        <v>6.03</v>
+        <v>1.26</v>
       </c>
       <c r="I4">
-        <v>5.86</v>
+        <v>2.39</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>1257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="F5">
-        <v>1585</v>
+        <v>750.74</v>
       </c>
       <c r="G5">
-        <v>241.09999999999991</v>
+        <v>558</v>
       </c>
       <c r="H5">
-        <v>6.57</v>
+        <v>1.35</v>
       </c>
       <c r="I5">
-        <v>6.62</v>
+        <v>2.39</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
@@ -1383,66 +1369,66 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C6">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="F6">
-        <v>1421</v>
+        <v>220.36</v>
       </c>
       <c r="G6">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="H6">
-        <v>6.67</v>
+        <v>1.39</v>
       </c>
       <c r="I6">
-        <v>6.62</v>
+        <v>2.39</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
       <c r="C7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="F7">
-        <v>2910</v>
+        <v>698</v>
       </c>
       <c r="G7">
-        <v>853.4</v>
+        <v>473</v>
       </c>
       <c r="H7">
-        <v>3.41</v>
+        <v>1.48</v>
       </c>
       <c r="I7">
-        <v>5.22</v>
+        <v>2.39</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
@@ -1453,31 +1439,31 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
       <c r="C8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="F8">
-        <v>9557.01</v>
+        <v>902</v>
       </c>
       <c r="G8">
-        <v>1830</v>
+        <v>600.09999999999945</v>
       </c>
       <c r="H8">
-        <v>5.22</v>
+        <v>1.5</v>
       </c>
       <c r="I8">
-        <v>5.22</v>
+        <v>2.39</v>
       </c>
       <c r="J8" t="s">
         <v>15</v>
@@ -1488,66 +1474,66 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
       <c r="C9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F9">
-        <v>440.89</v>
+        <v>748.56</v>
       </c>
       <c r="G9">
-        <v>81</v>
+        <v>460</v>
       </c>
       <c r="H9">
-        <v>5.44</v>
+        <v>1.63</v>
       </c>
       <c r="I9">
-        <v>5.22</v>
+        <v>2.39</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K9">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>203</v>
       </c>
       <c r="F10">
-        <v>9700</v>
+        <v>4390</v>
       </c>
       <c r="G10">
-        <v>835.60000000000036</v>
+        <v>2513</v>
       </c>
       <c r="H10">
-        <v>11.61</v>
+        <v>1.75</v>
       </c>
       <c r="I10">
-        <v>11.65</v>
+        <v>3.49</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
@@ -1558,66 +1544,66 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11">
-        <v>6129</v>
+        <v>462</v>
       </c>
       <c r="G11">
-        <v>524</v>
+        <v>255</v>
       </c>
       <c r="H11">
-        <v>11.7</v>
+        <v>1.81</v>
       </c>
       <c r="I11">
-        <v>11.65</v>
+        <v>3.44</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K11">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="F12">
-        <v>4730</v>
+        <v>1078.1500000000001</v>
       </c>
       <c r="G12">
-        <v>568</v>
+        <v>589</v>
       </c>
       <c r="H12">
-        <v>8.33</v>
+        <v>1.83</v>
       </c>
       <c r="I12">
-        <v>10.29</v>
+        <v>2.39</v>
       </c>
       <c r="J12" t="s">
         <v>15</v>
@@ -1628,31 +1614,31 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="F13">
-        <v>2761</v>
+        <v>3236.46</v>
       </c>
       <c r="G13">
-        <v>322.00000000000028</v>
+        <v>1688</v>
       </c>
       <c r="H13">
-        <v>8.57</v>
+        <v>1.92</v>
       </c>
       <c r="I13">
-        <v>10.29</v>
+        <v>2.39</v>
       </c>
       <c r="J13" t="s">
         <v>15</v>
@@ -1663,31 +1649,31 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="F14">
-        <v>6700</v>
+        <v>208.06</v>
       </c>
       <c r="G14">
-        <v>651</v>
+        <v>105</v>
       </c>
       <c r="H14">
-        <v>10.29</v>
+        <v>1.98</v>
       </c>
       <c r="I14">
-        <v>10.29</v>
+        <v>2.39</v>
       </c>
       <c r="J14" t="s">
         <v>15</v>
@@ -1698,101 +1684,101 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F15">
-        <v>14035</v>
+        <v>925</v>
       </c>
       <c r="G15">
-        <v>1246.5</v>
+        <v>418</v>
       </c>
       <c r="H15">
-        <v>11.26</v>
+        <v>2.21</v>
       </c>
       <c r="I15">
-        <v>10.29</v>
+        <v>2.39</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K15">
-        <v>1206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>204</v>
       </c>
       <c r="F16">
-        <v>24040.87</v>
+        <v>3458</v>
       </c>
       <c r="G16">
-        <v>2042</v>
+        <v>1528</v>
       </c>
       <c r="H16">
-        <v>11.77</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="I16">
-        <v>10.29</v>
+        <v>3.49</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K16">
-        <v>3025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="F17">
-        <v>504.25</v>
+        <v>4064.79</v>
       </c>
       <c r="G17">
-        <v>401</v>
+        <v>1768</v>
       </c>
       <c r="H17">
-        <v>1.26</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I17">
-        <v>1.83</v>
+        <v>2.39</v>
       </c>
       <c r="J17" t="s">
         <v>15</v>
@@ -1803,31 +1789,31 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F18">
-        <v>750.74</v>
+        <v>3810</v>
       </c>
       <c r="G18">
-        <v>558</v>
+        <v>1615</v>
       </c>
       <c r="H18">
-        <v>1.35</v>
+        <v>2.36</v>
       </c>
       <c r="I18">
-        <v>1.83</v>
+        <v>3.44</v>
       </c>
       <c r="J18" t="s">
         <v>15</v>
@@ -1838,31 +1824,31 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="F19">
-        <v>220.36</v>
+        <v>239.45</v>
       </c>
       <c r="G19">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="H19">
-        <v>1.39</v>
+        <v>2.39</v>
       </c>
       <c r="I19">
-        <v>1.83</v>
+        <v>2.39</v>
       </c>
       <c r="J19" t="s">
         <v>15</v>
@@ -1873,101 +1859,101 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="F20">
-        <v>698</v>
+        <v>315</v>
       </c>
       <c r="G20">
-        <v>473</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="H20">
-        <v>1.48</v>
+        <v>2.42</v>
       </c>
       <c r="I20">
-        <v>1.83</v>
+        <v>2.39</v>
       </c>
       <c r="J20" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="F21">
-        <v>902</v>
+        <v>1487.17</v>
       </c>
       <c r="G21">
-        <v>600.09999999999945</v>
+        <v>615</v>
       </c>
       <c r="H21">
-        <v>1.5</v>
+        <v>2.42</v>
       </c>
       <c r="I21">
-        <v>1.83</v>
+        <v>2.39</v>
       </c>
       <c r="J21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F22">
-        <v>748.56</v>
+        <v>5560.24</v>
       </c>
       <c r="G22">
-        <v>460</v>
+        <v>2230</v>
       </c>
       <c r="H22">
-        <v>1.63</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="I22">
-        <v>1.83</v>
+        <v>3.44</v>
       </c>
       <c r="J22" t="s">
         <v>15</v>
@@ -1978,31 +1964,31 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="F23">
-        <v>1078.1500000000001</v>
+        <v>4385</v>
       </c>
       <c r="G23">
-        <v>589</v>
+        <v>1745</v>
       </c>
       <c r="H23">
-        <v>1.83</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="I23">
-        <v>1.83</v>
+        <v>4.49</v>
       </c>
       <c r="J23" t="s">
         <v>15</v>
@@ -2013,241 +1999,241 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>205</v>
       </c>
       <c r="F24">
-        <v>3236.46</v>
+        <v>50</v>
       </c>
       <c r="G24">
-        <v>1688</v>
+        <v>19.900000000000091</v>
       </c>
       <c r="H24">
-        <v>1.92</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="I24">
-        <v>1.83</v>
+        <v>3.49</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K24">
-        <v>147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F25">
-        <v>208.06</v>
+        <v>1372.26</v>
       </c>
       <c r="G25">
-        <v>105</v>
+        <v>538</v>
       </c>
       <c r="H25">
-        <v>1.98</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="I25">
-        <v>1.83</v>
+        <v>3.44</v>
       </c>
       <c r="J25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K25">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F26">
-        <v>925</v>
+        <v>3495</v>
       </c>
       <c r="G26">
-        <v>418</v>
+        <v>1350</v>
       </c>
       <c r="H26">
-        <v>2.21</v>
+        <v>2.59</v>
       </c>
       <c r="I26">
-        <v>1.83</v>
+        <v>3.44</v>
       </c>
       <c r="J26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K26">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="F27">
-        <v>4064.79</v>
+        <v>3956.14</v>
       </c>
       <c r="G27">
-        <v>1768</v>
+        <v>1519</v>
       </c>
       <c r="H27">
-        <v>2.2999999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="I27">
-        <v>1.83</v>
+        <v>2.39</v>
       </c>
       <c r="J27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K27">
-        <v>829</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="F28">
-        <v>315</v>
+        <v>1455.2</v>
       </c>
       <c r="G28">
-        <v>130.30000000000001</v>
+        <v>555</v>
       </c>
       <c r="H28">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="I28">
-        <v>1.83</v>
+        <v>3.44</v>
       </c>
       <c r="J28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K28">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="F29">
-        <v>12945</v>
+        <v>2771.12</v>
       </c>
       <c r="G29">
-        <v>1951</v>
+        <v>1056</v>
       </c>
       <c r="H29">
-        <v>6.64</v>
+        <v>2.62</v>
       </c>
       <c r="I29">
-        <v>1.83</v>
+        <v>2.39</v>
       </c>
       <c r="J29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K29">
-        <v>9374</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="F30">
-        <v>123.41</v>
+        <v>2490</v>
       </c>
       <c r="G30">
-        <v>183</v>
+        <v>944.56</v>
       </c>
       <c r="H30">
-        <v>0.67</v>
+        <v>2.64</v>
       </c>
       <c r="I30">
-        <v>2.83</v>
+        <v>3.44</v>
       </c>
       <c r="J30" t="s">
         <v>15</v>
@@ -2258,31 +2244,31 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>206</v>
       </c>
       <c r="F31">
-        <v>239.45</v>
+        <v>1442</v>
       </c>
       <c r="G31">
-        <v>100</v>
+        <v>526</v>
       </c>
       <c r="H31">
-        <v>2.39</v>
+        <v>2.74</v>
       </c>
       <c r="I31">
-        <v>2.83</v>
+        <v>3.49</v>
       </c>
       <c r="J31" t="s">
         <v>15</v>
@@ -2293,66 +2279,66 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="F32">
-        <v>1487.17</v>
+        <v>3720.2</v>
       </c>
       <c r="G32">
-        <v>615</v>
+        <v>1353</v>
       </c>
       <c r="H32">
-        <v>2.42</v>
+        <v>2.75</v>
       </c>
       <c r="I32">
-        <v>2.83</v>
+        <v>2.39</v>
       </c>
       <c r="J32" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="F33">
-        <v>3956.14</v>
+        <v>2062</v>
       </c>
       <c r="G33">
-        <v>1519</v>
+        <v>745</v>
       </c>
       <c r="H33">
-        <v>2.6</v>
+        <v>2.77</v>
       </c>
       <c r="I33">
-        <v>2.83</v>
+        <v>4.49</v>
       </c>
       <c r="J33" t="s">
         <v>15</v>
@@ -2363,31 +2349,31 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="F34">
-        <v>2771.12</v>
+        <v>993.87</v>
       </c>
       <c r="G34">
-        <v>1056</v>
+        <v>355</v>
       </c>
       <c r="H34">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="I34">
-        <v>2.83</v>
+        <v>3.44</v>
       </c>
       <c r="J34" t="s">
         <v>15</v>
@@ -2398,31 +2384,31 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="F35">
-        <v>3720.2</v>
+        <v>4620.75</v>
       </c>
       <c r="G35">
-        <v>1353</v>
+        <v>1611</v>
       </c>
       <c r="H35">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="I35">
-        <v>2.83</v>
+        <v>3.44</v>
       </c>
       <c r="J35" t="s">
         <v>15</v>
@@ -2433,19 +2419,19 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F36">
         <v>4206.1400000000003</v>
@@ -2457,217 +2443,217 @@
         <v>2.9</v>
       </c>
       <c r="I36">
-        <v>2.83</v>
+        <v>2.39</v>
       </c>
       <c r="J36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K36">
-        <v>111</v>
+        <v>737</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="F37">
-        <v>3722.86</v>
+        <v>715</v>
       </c>
       <c r="G37">
-        <v>1185</v>
+        <v>231.2</v>
       </c>
       <c r="H37">
-        <v>3.14</v>
+        <v>3.09</v>
       </c>
       <c r="I37">
-        <v>2.83</v>
+        <v>3.44</v>
       </c>
       <c r="J37" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K37">
-        <v>374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="E38" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="F38">
-        <v>3775</v>
+        <v>6851.94</v>
       </c>
       <c r="G38">
-        <v>1086</v>
+        <v>2208</v>
       </c>
       <c r="H38">
-        <v>3.48</v>
+        <v>3.1</v>
       </c>
       <c r="I38">
-        <v>2.83</v>
+        <v>3.44</v>
       </c>
       <c r="J38" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K38">
-        <v>706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="E39" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F39">
-        <v>2050</v>
+        <v>3722.86</v>
       </c>
       <c r="G39">
-        <v>564</v>
+        <v>1185</v>
       </c>
       <c r="H39">
-        <v>3.63</v>
+        <v>3.14</v>
       </c>
       <c r="I39">
-        <v>2.83</v>
+        <v>2.39</v>
       </c>
       <c r="J39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K39">
-        <v>456</v>
+        <v>885</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="F40">
-        <v>4575</v>
+        <v>1145</v>
       </c>
       <c r="G40">
-        <v>1129</v>
+        <v>357</v>
       </c>
       <c r="H40">
-        <v>4.05</v>
+        <v>3.21</v>
       </c>
       <c r="I40">
-        <v>2.83</v>
+        <v>3.44</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K40">
-        <v>1384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
         <v>25</v>
       </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
-        <v>30</v>
-      </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="F41">
-        <v>3604.58</v>
+        <v>2910</v>
       </c>
       <c r="G41">
-        <v>878</v>
+        <v>853.4</v>
       </c>
       <c r="H41">
-        <v>4.1100000000000003</v>
+        <v>3.41</v>
       </c>
       <c r="I41">
-        <v>2.83</v>
+        <v>5.22</v>
       </c>
       <c r="J41" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K41">
-        <v>1123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="F42">
-        <v>462</v>
+        <v>6192.93</v>
       </c>
       <c r="G42">
-        <v>255</v>
+        <v>1799</v>
       </c>
       <c r="H42">
-        <v>1.81</v>
+        <v>3.44</v>
       </c>
       <c r="I42">
-        <v>3.09</v>
+        <v>3.44</v>
       </c>
       <c r="J42" t="s">
         <v>15</v>
@@ -2678,66 +2664,66 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F43">
-        <v>3810</v>
+        <v>3775</v>
       </c>
       <c r="G43">
-        <v>1615</v>
+        <v>1086</v>
       </c>
       <c r="H43">
-        <v>2.36</v>
+        <v>3.48</v>
       </c>
       <c r="I43">
-        <v>3.09</v>
+        <v>2.39</v>
       </c>
       <c r="J43" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="F44">
-        <v>5560.24</v>
+        <v>17515.59</v>
       </c>
       <c r="G44">
-        <v>2230</v>
+        <v>4997</v>
       </c>
       <c r="H44">
-        <v>2.4900000000000002</v>
+        <v>3.51</v>
       </c>
       <c r="I44">
-        <v>3.09</v>
+        <v>4.49</v>
       </c>
       <c r="J44" t="s">
         <v>15</v>
@@ -2748,31 +2734,31 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="F45">
-        <v>3495</v>
+        <v>18777.650000000001</v>
       </c>
       <c r="G45">
-        <v>1350</v>
+        <v>5336</v>
       </c>
       <c r="H45">
-        <v>2.59</v>
+        <v>3.52</v>
       </c>
       <c r="I45">
-        <v>3.09</v>
+        <v>4.49</v>
       </c>
       <c r="J45" t="s">
         <v>15</v>
@@ -2783,31 +2769,31 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="F46">
-        <v>2490</v>
+        <v>18030.87</v>
       </c>
       <c r="G46">
-        <v>944.56</v>
+        <v>5124</v>
       </c>
       <c r="H46">
-        <v>2.64</v>
+        <v>3.52</v>
       </c>
       <c r="I46">
-        <v>3.09</v>
+        <v>4.49</v>
       </c>
       <c r="J46" t="s">
         <v>15</v>
@@ -2818,66 +2804,66 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C47">
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F47">
-        <v>993.87</v>
+        <v>5288.07</v>
       </c>
       <c r="G47">
-        <v>355</v>
+        <v>1495</v>
       </c>
       <c r="H47">
-        <v>2.8</v>
+        <v>3.54</v>
       </c>
       <c r="I47">
-        <v>3.09</v>
+        <v>3.44</v>
       </c>
       <c r="J47" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="F48">
-        <v>4620.75</v>
+        <v>15936.9</v>
       </c>
       <c r="G48">
-        <v>1611</v>
+        <v>4483</v>
       </c>
       <c r="H48">
-        <v>2.87</v>
+        <v>3.55</v>
       </c>
       <c r="I48">
-        <v>3.09</v>
+        <v>4.49</v>
       </c>
       <c r="J48" t="s">
         <v>15</v>
@@ -2888,31 +2874,31 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="F49">
-        <v>715</v>
+        <v>16424.25</v>
       </c>
       <c r="G49">
-        <v>231.2</v>
+        <v>4601</v>
       </c>
       <c r="H49">
-        <v>3.09</v>
+        <v>3.57</v>
       </c>
       <c r="I49">
-        <v>3.09</v>
+        <v>4.49</v>
       </c>
       <c r="J49" t="s">
         <v>15</v>
@@ -2923,276 +2909,276 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E50" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="F50">
-        <v>1145</v>
+        <v>18229.400000000001</v>
       </c>
       <c r="G50">
-        <v>357</v>
+        <v>5073</v>
       </c>
       <c r="H50">
-        <v>3.21</v>
+        <v>3.59</v>
       </c>
       <c r="I50">
-        <v>3.09</v>
+        <v>4.49</v>
       </c>
       <c r="J50" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K50">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F51">
-        <v>6192.93</v>
+        <v>2050</v>
       </c>
       <c r="G51">
-        <v>1799</v>
+        <v>564</v>
       </c>
       <c r="H51">
-        <v>3.44</v>
+        <v>3.63</v>
       </c>
       <c r="I51">
-        <v>3.09</v>
+        <v>2.39</v>
       </c>
       <c r="J51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K51">
-        <v>629</v>
+        <v>700</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E52" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="F52">
-        <v>5288.07</v>
+        <v>1349.22</v>
       </c>
       <c r="G52">
-        <v>1495</v>
+        <v>367</v>
       </c>
       <c r="H52">
-        <v>3.54</v>
+        <v>3.68</v>
       </c>
       <c r="I52">
-        <v>3.09</v>
+        <v>3.44</v>
       </c>
       <c r="J52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K52">
-        <v>665</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="F53">
-        <v>4190.08</v>
+        <v>11625</v>
       </c>
       <c r="G53">
-        <v>1084</v>
+        <v>3137</v>
       </c>
       <c r="H53">
-        <v>3.87</v>
+        <v>3.71</v>
       </c>
       <c r="I53">
-        <v>3.09</v>
+        <v>4.49</v>
       </c>
       <c r="J53" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K53">
-        <v>838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="E54" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="F54">
-        <v>1590</v>
+        <v>10470</v>
       </c>
       <c r="G54">
-        <v>399</v>
+        <v>2785</v>
       </c>
       <c r="H54">
-        <v>3.98</v>
+        <v>3.76</v>
       </c>
       <c r="I54">
-        <v>3.09</v>
+        <v>4.49</v>
       </c>
       <c r="J54" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K54">
-        <v>356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="F55">
-        <v>940.81</v>
+        <v>14790.16</v>
       </c>
       <c r="G55">
-        <v>236</v>
+        <v>3890</v>
       </c>
       <c r="H55">
-        <v>3.99</v>
+        <v>3.8</v>
       </c>
       <c r="I55">
-        <v>3.09</v>
+        <v>4.49</v>
       </c>
       <c r="J55" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K55">
-        <v>211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56">
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="F56">
-        <v>2504</v>
+        <v>4190.08</v>
       </c>
       <c r="G56">
-        <v>557</v>
+        <v>1084</v>
       </c>
       <c r="H56">
-        <v>4.5</v>
+        <v>3.87</v>
       </c>
       <c r="I56">
-        <v>3.09</v>
+        <v>3.44</v>
       </c>
       <c r="J56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K56">
-        <v>781</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="F57">
-        <v>5630.86</v>
+        <v>16735.310000000001</v>
       </c>
       <c r="G57">
-        <v>3519</v>
+        <v>4328</v>
       </c>
       <c r="H57">
-        <v>1.6</v>
+        <v>3.87</v>
       </c>
       <c r="I57">
-        <v>2.64</v>
+        <v>4.49</v>
       </c>
       <c r="J57" t="s">
         <v>15</v>
@@ -3203,311 +3189,311 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E58" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="F58">
-        <v>1349.22</v>
+        <v>13677.95</v>
       </c>
       <c r="G58">
-        <v>367</v>
+        <v>3456</v>
       </c>
       <c r="H58">
-        <v>3.68</v>
+        <v>3.96</v>
       </c>
       <c r="I58">
-        <v>2.64</v>
+        <v>4.49</v>
       </c>
       <c r="J58" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K58">
-        <v>381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="F59">
-        <v>1372.26</v>
+        <v>1590</v>
       </c>
       <c r="G59">
-        <v>538</v>
+        <v>399</v>
       </c>
       <c r="H59">
-        <v>2.5499999999999998</v>
+        <v>3.98</v>
       </c>
       <c r="I59">
-        <v>4.6900000000000004</v>
+        <v>3.44</v>
       </c>
       <c r="J59" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E60" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="F60">
-        <v>1455.2</v>
+        <v>940.81</v>
       </c>
       <c r="G60">
-        <v>555</v>
+        <v>236</v>
       </c>
       <c r="H60">
-        <v>2.62</v>
+        <v>3.99</v>
       </c>
       <c r="I60">
-        <v>4.6900000000000004</v>
+        <v>3.44</v>
       </c>
       <c r="J60" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F61">
-        <v>6851.94</v>
+        <v>4575</v>
       </c>
       <c r="G61">
-        <v>2208</v>
+        <v>1129</v>
       </c>
       <c r="H61">
-        <v>3.1</v>
+        <v>4.05</v>
       </c>
       <c r="I61">
-        <v>4.6900000000000004</v>
+        <v>2.39</v>
       </c>
       <c r="J61" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E62" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F62">
-        <v>5126.62</v>
+        <v>3604.58</v>
       </c>
       <c r="G62">
-        <v>1094</v>
+        <v>878</v>
       </c>
       <c r="H62">
-        <v>4.6900000000000004</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="I62">
-        <v>4.6900000000000004</v>
+        <v>2.39</v>
       </c>
       <c r="J62" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="E63" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="F63">
-        <v>9075.77</v>
+        <v>17296.53</v>
       </c>
       <c r="G63">
-        <v>1582</v>
+        <v>4110</v>
       </c>
       <c r="H63">
-        <v>5.74</v>
+        <v>4.21</v>
       </c>
       <c r="I63">
-        <v>4.6900000000000004</v>
+        <v>4.49</v>
       </c>
       <c r="J63" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K63">
-        <v>1662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D64" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="E64" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="F64">
-        <v>6364.47</v>
+        <v>1920</v>
       </c>
       <c r="G64">
-        <v>1057</v>
+        <v>453.59999999999991</v>
       </c>
       <c r="H64">
-        <v>6.02</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="I64">
-        <v>4.6900000000000004</v>
+        <v>4.49</v>
       </c>
       <c r="J64" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K64">
-        <v>1411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E65" t="s">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="F65">
-        <v>7969.38</v>
+        <v>14701.57</v>
       </c>
       <c r="G65">
-        <v>1209</v>
+        <v>3474</v>
       </c>
       <c r="H65">
-        <v>6.59</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="I65">
-        <v>4.6900000000000004</v>
+        <v>3.49</v>
       </c>
       <c r="J65" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K65">
-        <v>2304</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="C66">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D66" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="E66" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="F66">
-        <v>5098</v>
+        <v>18941</v>
       </c>
       <c r="G66">
-        <v>925.70000000000027</v>
+        <v>4430</v>
       </c>
       <c r="H66">
-        <v>5.51</v>
+        <v>4.28</v>
       </c>
       <c r="I66">
-        <v>5.51</v>
+        <v>4.49</v>
       </c>
       <c r="J66" t="s">
         <v>15</v>
@@ -3518,31 +3504,31 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="C67">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D67" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="E67" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="F67">
-        <v>23694</v>
+        <v>9335.36</v>
       </c>
       <c r="G67">
-        <v>2599.2000000000012</v>
+        <v>2111</v>
       </c>
       <c r="H67">
-        <v>9.1199999999999992</v>
+        <v>4.42</v>
       </c>
       <c r="I67">
-        <v>12.56</v>
+        <v>4.49</v>
       </c>
       <c r="J67" t="s">
         <v>15</v>
@@ -3553,206 +3539,206 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="B68" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="C68">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="E68" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="F68">
-        <v>25070</v>
+        <v>7583</v>
       </c>
       <c r="G68">
-        <v>2104</v>
+        <v>1687</v>
       </c>
       <c r="H68">
-        <v>11.92</v>
+        <v>4.49</v>
       </c>
       <c r="I68">
-        <v>12.56</v>
+        <v>3.49</v>
       </c>
       <c r="J68" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="B69" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="C69">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="E69" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="F69">
-        <v>18312</v>
+        <v>2504</v>
       </c>
       <c r="G69">
-        <v>1457.8000000000011</v>
+        <v>557</v>
       </c>
       <c r="H69">
-        <v>12.56</v>
+        <v>4.5</v>
       </c>
       <c r="I69">
-        <v>12.56</v>
+        <v>3.44</v>
       </c>
       <c r="J69" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>587</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="C70">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D70" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E70" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="F70">
-        <v>42484.29</v>
+        <v>12565</v>
       </c>
       <c r="G70">
-        <v>2898</v>
+        <v>2753</v>
       </c>
       <c r="H70">
-        <v>14.66</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="I70">
-        <v>12.56</v>
+        <v>4.49</v>
       </c>
       <c r="J70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K70">
-        <v>6081</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="C71">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E71" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="F71">
-        <v>28635.56</v>
+        <v>5126.62</v>
       </c>
       <c r="G71">
-        <v>1714</v>
+        <v>1094</v>
       </c>
       <c r="H71">
-        <v>16.71</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="I71">
-        <v>12.56</v>
+        <v>3.44</v>
       </c>
       <c r="J71" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K71">
-        <v>7105</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="C72">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D72" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E72" t="s">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="F72">
-        <v>6943</v>
+        <v>2600</v>
       </c>
       <c r="G72">
-        <v>621.10000000000036</v>
+        <v>500.59999999999849</v>
       </c>
       <c r="H72">
-        <v>11.18</v>
+        <v>5.19</v>
       </c>
       <c r="I72">
-        <v>15.07</v>
+        <v>3.49</v>
       </c>
       <c r="J72" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>855</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="B73" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="C73">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="E73" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="F73">
-        <v>15137</v>
+        <v>9557.01</v>
       </c>
       <c r="G73">
-        <v>1290</v>
+        <v>1830</v>
       </c>
       <c r="H73">
-        <v>11.73</v>
+        <v>5.22</v>
       </c>
       <c r="I73">
-        <v>15.07</v>
+        <v>5.22</v>
       </c>
       <c r="J73" t="s">
         <v>15</v>
@@ -3763,171 +3749,171 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="B74" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="C74">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="E74" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="F74">
-        <v>43127.7</v>
+        <v>440.89</v>
       </c>
       <c r="G74">
-        <v>3585</v>
+        <v>81</v>
       </c>
       <c r="H74">
-        <v>12.03</v>
+        <v>5.44</v>
       </c>
       <c r="I74">
-        <v>15.07</v>
+        <v>5.22</v>
       </c>
       <c r="J74" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="B75" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="C75">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="E75" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="F75">
-        <v>33529</v>
+        <v>5098</v>
       </c>
       <c r="G75">
-        <v>2759</v>
+        <v>925.70000000000027</v>
       </c>
       <c r="H75">
-        <v>12.15</v>
+        <v>5.51</v>
       </c>
       <c r="I75">
-        <v>15.07</v>
+        <v>3.44</v>
       </c>
       <c r="J75" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="C76">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D76" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="E76" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="F76">
-        <v>20585</v>
+        <v>22122.63</v>
       </c>
       <c r="G76">
-        <v>1681</v>
+        <v>3872</v>
       </c>
       <c r="H76">
-        <v>12.25</v>
+        <v>5.71</v>
       </c>
       <c r="I76">
-        <v>15.07</v>
+        <v>4.49</v>
       </c>
       <c r="J76" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="B77" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="C77">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="E77" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="F77">
-        <v>27855</v>
+        <v>9075.77</v>
       </c>
       <c r="G77">
-        <v>2222</v>
+        <v>1582</v>
       </c>
       <c r="H77">
-        <v>12.54</v>
+        <v>5.74</v>
       </c>
       <c r="I77">
-        <v>15.07</v>
+        <v>3.44</v>
       </c>
       <c r="J77" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="C78">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D78" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E78" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="F78">
-        <v>47960.94</v>
+        <v>45242.37</v>
       </c>
       <c r="G78">
-        <v>3782</v>
+        <v>7816</v>
       </c>
       <c r="H78">
-        <v>12.68</v>
+        <v>5.79</v>
       </c>
       <c r="I78">
-        <v>15.07</v>
+        <v>6.03</v>
       </c>
       <c r="J78" t="s">
         <v>15</v>
@@ -3938,66 +3924,66 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="B79" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="C79">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D79" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="E79" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="F79">
-        <v>29700</v>
+        <v>17225.689999999999</v>
       </c>
       <c r="G79">
-        <v>2266</v>
+        <v>2968</v>
       </c>
       <c r="H79">
-        <v>13.11</v>
+        <v>5.8</v>
       </c>
       <c r="I79">
-        <v>15.07</v>
+        <v>4.49</v>
       </c>
       <c r="J79" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="C80">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D80" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E80" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="F80">
-        <v>50998.93</v>
+        <v>46414.63</v>
       </c>
       <c r="G80">
-        <v>3880</v>
+        <v>7916</v>
       </c>
       <c r="H80">
-        <v>13.14</v>
+        <v>5.86</v>
       </c>
       <c r="I80">
-        <v>15.07</v>
+        <v>6.03</v>
       </c>
       <c r="J80" t="s">
         <v>15</v>
@@ -4008,766 +3994,766 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="B81" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="C81">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D81" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E81" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="F81">
-        <v>19500</v>
+        <v>20879.95</v>
       </c>
       <c r="G81">
-        <v>1482</v>
+        <v>3550</v>
       </c>
       <c r="H81">
-        <v>13.16</v>
+        <v>5.88</v>
       </c>
       <c r="I81">
-        <v>15.07</v>
+        <v>4.49</v>
       </c>
       <c r="J81" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="B82" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="C82">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D82" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E82" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="F82">
-        <v>50796.29</v>
+        <v>19893.66</v>
       </c>
       <c r="G82">
-        <v>3849</v>
+        <v>3379</v>
       </c>
       <c r="H82">
-        <v>13.2</v>
+        <v>5.89</v>
       </c>
       <c r="I82">
-        <v>15.07</v>
+        <v>4.49</v>
       </c>
       <c r="J82" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="C83">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="E83" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="F83">
-        <v>38926</v>
+        <v>5630.86</v>
       </c>
       <c r="G83">
-        <v>2658</v>
+        <v>955</v>
       </c>
       <c r="H83">
-        <v>14.64</v>
+        <v>5.9</v>
       </c>
       <c r="I83">
-        <v>15.07</v>
+        <v>3.44</v>
       </c>
       <c r="J83" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="B84" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="C84">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E84" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="F84">
-        <v>39003.120000000003</v>
+        <v>20146.310000000001</v>
       </c>
       <c r="G84">
-        <v>2621</v>
+        <v>3417</v>
       </c>
       <c r="H84">
-        <v>14.88</v>
+        <v>5.9</v>
       </c>
       <c r="I84">
-        <v>15.07</v>
+        <v>4.49</v>
       </c>
       <c r="J84" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="B85" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="C85">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D85" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E85" t="s">
-        <v>143</v>
+        <v>210</v>
       </c>
       <c r="F85">
-        <v>64503.69</v>
+        <v>5231</v>
       </c>
       <c r="G85">
-        <v>4279</v>
+        <v>876</v>
       </c>
       <c r="H85">
-        <v>15.07</v>
+        <v>5.97</v>
       </c>
       <c r="I85">
-        <v>15.07</v>
+        <v>3.49</v>
       </c>
       <c r="J85" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="B86" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="C86">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E86" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="F86">
-        <v>43211.72</v>
+        <v>6364.47</v>
       </c>
       <c r="G86">
-        <v>2860</v>
+        <v>1057</v>
       </c>
       <c r="H86">
-        <v>15.11</v>
+        <v>6.02</v>
       </c>
       <c r="I86">
-        <v>15.07</v>
+        <v>3.44</v>
       </c>
       <c r="J86" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K86">
-        <v>99</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="C87">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D87" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E87" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="F87">
-        <v>7316</v>
+        <v>46428.46</v>
       </c>
       <c r="G87">
-        <v>466</v>
+        <v>7704</v>
       </c>
       <c r="H87">
-        <v>15.7</v>
+        <v>6.03</v>
       </c>
       <c r="I87">
-        <v>15.07</v>
+        <v>6.03</v>
       </c>
       <c r="J87" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K87">
-        <v>291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="B88" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="C88">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D88" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="E88" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="F88">
-        <v>58801</v>
+        <v>22529.22</v>
       </c>
       <c r="G88">
-        <v>3741</v>
+        <v>3655</v>
       </c>
       <c r="H88">
-        <v>15.72</v>
+        <v>6.16</v>
       </c>
       <c r="I88">
-        <v>15.07</v>
+        <v>4.49</v>
       </c>
       <c r="J88" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K88">
-        <v>2407</v>
+        <v>6107</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="B89" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="C89">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D89" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E89" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="F89">
-        <v>17885</v>
+        <v>27084.01</v>
       </c>
       <c r="G89">
-        <v>1132.200000000001</v>
+        <v>4314</v>
       </c>
       <c r="H89">
-        <v>15.8</v>
+        <v>6.28</v>
       </c>
       <c r="I89">
-        <v>15.07</v>
+        <v>4.49</v>
       </c>
       <c r="J89" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K89">
-        <v>818</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="B90" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="C90">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D90" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E90" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="F90">
-        <v>25428.94</v>
+        <v>22343.85</v>
       </c>
       <c r="G90">
-        <v>1563</v>
+        <v>3544</v>
       </c>
       <c r="H90">
-        <v>16.27</v>
+        <v>6.3</v>
       </c>
       <c r="I90">
-        <v>15.07</v>
+        <v>4.49</v>
       </c>
       <c r="J90" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K90">
-        <v>1868</v>
+        <v>6420</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="B91" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="C91">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D91" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E91" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="F91">
-        <v>55200.07</v>
+        <v>22956.67</v>
       </c>
       <c r="G91">
-        <v>3372</v>
+        <v>3629</v>
       </c>
       <c r="H91">
-        <v>16.37</v>
+        <v>6.33</v>
       </c>
       <c r="I91">
-        <v>15.07</v>
+        <v>4.49</v>
       </c>
       <c r="J91" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K91">
-        <v>4369</v>
+        <v>6651</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="B92" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="C92">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D92" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E92" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="F92">
-        <v>59566</v>
+        <v>25688.14</v>
       </c>
       <c r="G92">
-        <v>3561</v>
+        <v>3979</v>
       </c>
       <c r="H92">
-        <v>16.73</v>
+        <v>6.46</v>
       </c>
       <c r="I92">
-        <v>15.07</v>
+        <v>4.49</v>
       </c>
       <c r="J92" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K92">
-        <v>5886</v>
+        <v>7810</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="B93" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="C93">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D93" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E93" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="F93">
-        <v>49834.239999999998</v>
+        <v>6577.7000000000007</v>
       </c>
       <c r="G93">
-        <v>2922</v>
+        <v>1004</v>
       </c>
       <c r="H93">
-        <v>17.05</v>
+        <v>6.55</v>
       </c>
       <c r="I93">
-        <v>15.07</v>
+        <v>4.49</v>
       </c>
       <c r="J93" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K93">
-        <v>5787</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="C94">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D94" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E94" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="F94">
-        <v>70818.649999999994</v>
+        <v>1585</v>
       </c>
       <c r="G94">
-        <v>4053</v>
+        <v>241.09999999999991</v>
       </c>
       <c r="H94">
-        <v>17.47</v>
+        <v>6.57</v>
       </c>
       <c r="I94">
-        <v>15.07</v>
+        <v>6.03</v>
       </c>
       <c r="J94" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K94">
-        <v>9722</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="B95" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="C95">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E95" t="s">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="F95">
-        <v>39546.21</v>
+        <v>7969.38</v>
       </c>
       <c r="G95">
-        <v>2247</v>
+        <v>1209</v>
       </c>
       <c r="H95">
-        <v>17.600000000000001</v>
+        <v>6.59</v>
       </c>
       <c r="I95">
-        <v>15.07</v>
+        <v>3.44</v>
       </c>
       <c r="J95" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K95">
-        <v>5674</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="C96">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="D96" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="E96" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="F96">
-        <v>31173.93</v>
+        <v>1421</v>
       </c>
       <c r="G96">
-        <v>1639</v>
+        <v>213</v>
       </c>
       <c r="H96">
-        <v>19.02</v>
+        <v>6.67</v>
       </c>
       <c r="I96">
-        <v>15.07</v>
+        <v>6.03</v>
       </c>
       <c r="J96" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K96">
-        <v>6467</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="B97" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="C97">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E97" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="F97">
-        <v>60370.98</v>
+        <v>18777.66</v>
       </c>
       <c r="G97">
-        <v>2963</v>
+        <v>2800</v>
       </c>
       <c r="H97">
-        <v>20.37</v>
+        <v>6.71</v>
       </c>
       <c r="I97">
-        <v>15.07</v>
+        <v>4.49</v>
       </c>
       <c r="J97" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K97">
-        <v>15705</v>
+        <v>6197</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="B98" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="C98">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D98" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E98" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F98">
-        <v>20350</v>
+        <v>9649.9699999999993</v>
       </c>
       <c r="G98">
-        <v>972</v>
+        <v>1401</v>
       </c>
       <c r="H98">
-        <v>20.94</v>
+        <v>6.89</v>
       </c>
       <c r="I98">
-        <v>15.07</v>
+        <v>7.69</v>
       </c>
       <c r="J98" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K98">
-        <v>5698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B99" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C99">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D99" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="E99" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="F99">
-        <v>209.73</v>
+        <v>24644.01</v>
       </c>
       <c r="G99">
-        <v>328</v>
+        <v>3458</v>
       </c>
       <c r="H99">
-        <v>0.64</v>
+        <v>7.13</v>
       </c>
       <c r="I99">
-        <v>3.76</v>
+        <v>4.49</v>
       </c>
       <c r="J99" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>9107</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B100" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C100">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D100" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E100" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="F100">
-        <v>9649.9699999999993</v>
+        <v>20417.77</v>
       </c>
       <c r="G100">
-        <v>1401</v>
+        <v>2720</v>
       </c>
       <c r="H100">
-        <v>6.89</v>
+        <v>7.51</v>
       </c>
       <c r="I100">
-        <v>3.76</v>
+        <v>4.49</v>
       </c>
       <c r="J100" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K100">
-        <v>4377</v>
+        <v>8196</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B101" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C101">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D101" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E101" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="F101">
-        <v>26410.080000000002</v>
+        <v>21106.98</v>
       </c>
       <c r="G101">
-        <v>3434</v>
+        <v>2793</v>
       </c>
       <c r="H101">
-        <v>7.69</v>
+        <v>7.56</v>
       </c>
       <c r="I101">
-        <v>7.81</v>
+        <v>4.49</v>
       </c>
       <c r="J101" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>8558</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B102" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C102">
         <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E102" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F102">
-        <v>19427.830000000002</v>
+        <v>26410.080000000002</v>
       </c>
       <c r="G102">
-        <v>2489</v>
+        <v>3434</v>
       </c>
       <c r="H102">
-        <v>7.81</v>
+        <v>7.69</v>
       </c>
       <c r="I102">
-        <v>7.81</v>
+        <v>7.69</v>
       </c>
       <c r="J102" t="s">
         <v>15</v>
@@ -4778,101 +4764,101 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B103" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C103">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D103" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E103" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="F103">
-        <v>37725.910000000003</v>
+        <v>20634.28</v>
       </c>
       <c r="G103">
-        <v>4477</v>
+        <v>2666</v>
       </c>
       <c r="H103">
-        <v>8.43</v>
+        <v>7.74</v>
       </c>
       <c r="I103">
-        <v>7.81</v>
+        <v>4.49</v>
       </c>
       <c r="J103" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K103">
-        <v>2781</v>
+        <v>8655</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B104" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C104">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E104" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F104">
-        <v>820.44</v>
+        <v>19427.830000000002</v>
       </c>
       <c r="G104">
-        <v>4001.3</v>
+        <v>2489</v>
       </c>
       <c r="H104">
-        <v>0.21</v>
+        <v>7.81</v>
       </c>
       <c r="I104">
-        <v>11.63</v>
+        <v>7.69</v>
       </c>
       <c r="J104" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>286</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>167</v>
+        <v>24</v>
       </c>
       <c r="C105">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D105" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="F105">
-        <v>2905</v>
+        <v>4730</v>
       </c>
       <c r="G105">
-        <v>285.89999999999958</v>
+        <v>568</v>
       </c>
       <c r="H105">
-        <v>10.16</v>
+        <v>8.33</v>
       </c>
       <c r="I105">
-        <v>11.63</v>
+        <v>11.26</v>
       </c>
       <c r="J105" t="s">
         <v>15</v>
@@ -4883,101 +4869,101 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B106" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C106">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="E106" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F106">
-        <v>11600</v>
+        <v>37725.910000000003</v>
       </c>
       <c r="G106">
-        <v>885</v>
+        <v>4477</v>
       </c>
       <c r="H106">
-        <v>13.11</v>
+        <v>8.43</v>
       </c>
       <c r="I106">
-        <v>11.63</v>
+        <v>7.69</v>
       </c>
       <c r="J106" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K106">
-        <v>1304</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>167</v>
+        <v>24</v>
       </c>
       <c r="C107">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D107" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E107" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="F107">
-        <v>8146</v>
+        <v>2761</v>
       </c>
       <c r="G107">
-        <v>364.90000000000038</v>
+        <v>322.00000000000028</v>
       </c>
       <c r="H107">
-        <v>22.32</v>
+        <v>8.57</v>
       </c>
       <c r="I107">
-        <v>11.63</v>
+        <v>11.26</v>
       </c>
       <c r="J107" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K107">
-        <v>3901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C108">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D108" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="E108" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="F108">
-        <v>4385</v>
+        <v>23694</v>
       </c>
       <c r="G108">
-        <v>1745</v>
+        <v>2599.2000000000012</v>
       </c>
       <c r="H108">
-        <v>2.5099999999999998</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="I108">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J108" t="s">
         <v>15</v>
@@ -4988,31 +4974,31 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B109" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C109">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D109" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="E109" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="F109">
-        <v>2062</v>
+        <v>2905</v>
       </c>
       <c r="G109">
-        <v>745</v>
+        <v>285.89999999999958</v>
       </c>
       <c r="H109">
-        <v>2.77</v>
+        <v>10.16</v>
       </c>
       <c r="I109">
-        <v>4.49</v>
+        <v>11.82</v>
       </c>
       <c r="J109" t="s">
         <v>15</v>
@@ -5023,31 +5009,31 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="B110" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="C110">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D110" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="E110" t="s">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="F110">
-        <v>17515.59</v>
+        <v>6700</v>
       </c>
       <c r="G110">
-        <v>4997</v>
+        <v>651</v>
       </c>
       <c r="H110">
-        <v>3.51</v>
+        <v>10.29</v>
       </c>
       <c r="I110">
-        <v>4.49</v>
+        <v>11.26</v>
       </c>
       <c r="J110" t="s">
         <v>15</v>
@@ -5058,31 +5044,31 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B111" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C111">
         <v>40</v>
       </c>
       <c r="D111" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E111" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="F111">
-        <v>18777.650000000001</v>
+        <v>820.44</v>
       </c>
       <c r="G111">
-        <v>5336</v>
+        <v>77.900000000000091</v>
       </c>
       <c r="H111">
-        <v>3.52</v>
+        <v>10.53</v>
       </c>
       <c r="I111">
-        <v>4.49</v>
+        <v>11.82</v>
       </c>
       <c r="J111" t="s">
         <v>15</v>
@@ -5093,31 +5079,31 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C112">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D112" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="E112" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="F112">
-        <v>18030.87</v>
+        <v>6943</v>
       </c>
       <c r="G112">
-        <v>5124</v>
+        <v>621.10000000000036</v>
       </c>
       <c r="H112">
-        <v>3.52</v>
+        <v>11.18</v>
       </c>
       <c r="I112">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J112" t="s">
         <v>15</v>
@@ -5128,31 +5114,31 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="B113" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="C113">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D113" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="E113" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="F113">
-        <v>15936.9</v>
+        <v>14035</v>
       </c>
       <c r="G113">
-        <v>4483</v>
+        <v>1246.5</v>
       </c>
       <c r="H113">
-        <v>3.55</v>
+        <v>11.26</v>
       </c>
       <c r="I113">
-        <v>4.49</v>
+        <v>11.26</v>
       </c>
       <c r="J113" t="s">
         <v>15</v>
@@ -5163,101 +5149,101 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="B114" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="C114">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D114" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="E114" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="F114">
-        <v>16424.25</v>
+        <v>9700</v>
       </c>
       <c r="G114">
-        <v>4601</v>
+        <v>835.60000000000036</v>
       </c>
       <c r="H114">
-        <v>3.57</v>
+        <v>11.61</v>
       </c>
       <c r="I114">
-        <v>4.49</v>
+        <v>11.26</v>
       </c>
       <c r="J114" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>292</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="B115" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="C115">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D115" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="E115" t="s">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="F115">
-        <v>18229.400000000001</v>
+        <v>6129</v>
       </c>
       <c r="G115">
-        <v>5073</v>
+        <v>524</v>
       </c>
       <c r="H115">
-        <v>3.59</v>
+        <v>11.7</v>
       </c>
       <c r="I115">
-        <v>4.49</v>
+        <v>11.26</v>
       </c>
       <c r="J115" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C116">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D116" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E116" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="F116">
-        <v>11625</v>
+        <v>15137</v>
       </c>
       <c r="G116">
-        <v>3137</v>
+        <v>1290</v>
       </c>
       <c r="H116">
-        <v>3.71</v>
+        <v>11.73</v>
       </c>
       <c r="I116">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J116" t="s">
         <v>15</v>
@@ -5268,66 +5254,66 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="B117" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="C117">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D117" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="E117" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
       <c r="F117">
-        <v>10470</v>
+        <v>24040.87</v>
       </c>
       <c r="G117">
-        <v>2785</v>
+        <v>2042</v>
       </c>
       <c r="H117">
-        <v>3.76</v>
+        <v>11.77</v>
       </c>
       <c r="I117">
-        <v>4.49</v>
+        <v>11.26</v>
       </c>
       <c r="J117" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C118">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D118" t="s">
         <v>60</v>
       </c>
       <c r="E118" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="F118">
-        <v>14790.16</v>
+        <v>25070</v>
       </c>
       <c r="G118">
-        <v>3890</v>
+        <v>2104</v>
       </c>
       <c r="H118">
-        <v>3.8</v>
+        <v>11.92</v>
       </c>
       <c r="I118">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J118" t="s">
         <v>15</v>
@@ -5338,31 +5324,31 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B119" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C119">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D119" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="E119" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="F119">
-        <v>16735.310000000001</v>
+        <v>43127.7</v>
       </c>
       <c r="G119">
-        <v>4328</v>
+        <v>3585</v>
       </c>
       <c r="H119">
-        <v>3.87</v>
+        <v>12.03</v>
       </c>
       <c r="I119">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J119" t="s">
         <v>15</v>
@@ -5373,31 +5359,31 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B120" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C120">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D120" t="s">
         <v>60</v>
       </c>
       <c r="E120" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
       <c r="F120">
-        <v>13677.95</v>
+        <v>33529</v>
       </c>
       <c r="G120">
-        <v>3456</v>
+        <v>2759</v>
       </c>
       <c r="H120">
-        <v>3.96</v>
+        <v>12.15</v>
       </c>
       <c r="I120">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J120" t="s">
         <v>15</v>
@@ -5408,31 +5394,31 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B121" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C121">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D121" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E121" t="s">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="F121">
-        <v>17296.53</v>
+        <v>20585</v>
       </c>
       <c r="G121">
-        <v>4110</v>
+        <v>1681</v>
       </c>
       <c r="H121">
-        <v>4.21</v>
+        <v>12.25</v>
       </c>
       <c r="I121">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J121" t="s">
         <v>15</v>
@@ -5443,31 +5429,31 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B122" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C122">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D122" t="s">
-        <v>188</v>
+        <v>34</v>
       </c>
       <c r="E122" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="F122">
-        <v>1920</v>
+        <v>27855</v>
       </c>
       <c r="G122">
-        <v>453.59999999999991</v>
+        <v>2222</v>
       </c>
       <c r="H122">
-        <v>4.2300000000000004</v>
+        <v>12.54</v>
       </c>
       <c r="I122">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J122" t="s">
         <v>15</v>
@@ -5478,31 +5464,31 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B123" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C123">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D123" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E123" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="F123">
-        <v>18941</v>
+        <v>18312</v>
       </c>
       <c r="G123">
-        <v>4430</v>
+        <v>1457.8000000000011</v>
       </c>
       <c r="H123">
-        <v>4.28</v>
+        <v>12.56</v>
       </c>
       <c r="I123">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J123" t="s">
         <v>15</v>
@@ -5513,31 +5499,31 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B124" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C124">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D124" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E124" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="F124">
-        <v>9335.36</v>
+        <v>47960.94</v>
       </c>
       <c r="G124">
-        <v>2111</v>
+        <v>3782</v>
       </c>
       <c r="H124">
-        <v>4.42</v>
+        <v>12.68</v>
       </c>
       <c r="I124">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J124" t="s">
         <v>15</v>
@@ -5548,883 +5534,883 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B125" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C125">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D125" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E125" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="F125">
-        <v>12565</v>
+        <v>29700</v>
       </c>
       <c r="G125">
-        <v>2753</v>
+        <v>2266</v>
       </c>
       <c r="H125">
-        <v>4.5599999999999996</v>
+        <v>13.11</v>
       </c>
       <c r="I125">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J125" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K125">
-        <v>195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B126" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C126">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D126" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="E126" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="F126">
-        <v>22122.63</v>
+        <v>11600</v>
       </c>
       <c r="G126">
-        <v>3872</v>
+        <v>885</v>
       </c>
       <c r="H126">
-        <v>5.71</v>
+        <v>13.11</v>
       </c>
       <c r="I126">
-        <v>4.49</v>
+        <v>11.82</v>
       </c>
       <c r="J126" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K126">
-        <v>4725</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B127" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C127">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E127" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="F127">
-        <v>17225.689999999999</v>
+        <v>50998.93</v>
       </c>
       <c r="G127">
-        <v>2968</v>
+        <v>3880</v>
       </c>
       <c r="H127">
-        <v>5.8</v>
+        <v>13.14</v>
       </c>
       <c r="I127">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J127" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K127">
-        <v>3890</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B128" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C128">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D128" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="E128" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="F128">
-        <v>20879.95</v>
+        <v>19500</v>
       </c>
       <c r="G128">
-        <v>3550</v>
+        <v>1482</v>
       </c>
       <c r="H128">
-        <v>5.88</v>
+        <v>13.16</v>
       </c>
       <c r="I128">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J128" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K128">
-        <v>4929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B129" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C129">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D129" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E129" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="F129">
-        <v>19893.66</v>
+        <v>50796.29</v>
       </c>
       <c r="G129">
-        <v>3379</v>
+        <v>3849</v>
       </c>
       <c r="H129">
-        <v>5.89</v>
+        <v>13.2</v>
       </c>
       <c r="I129">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J129" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K129">
-        <v>4711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B130" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C130">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D130" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="E130" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="F130">
-        <v>20146.310000000001</v>
+        <v>38926</v>
       </c>
       <c r="G130">
-        <v>3417</v>
+        <v>2658</v>
       </c>
       <c r="H130">
-        <v>5.9</v>
+        <v>14.64</v>
       </c>
       <c r="I130">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J130" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K130">
-        <v>4793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B131" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C131">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D131" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="E131" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="F131">
-        <v>22529.22</v>
+        <v>42484.29</v>
       </c>
       <c r="G131">
-        <v>3655</v>
+        <v>2898</v>
       </c>
       <c r="H131">
-        <v>6.16</v>
+        <v>14.66</v>
       </c>
       <c r="I131">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J131" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K131">
-        <v>6107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B132" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C132">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D132" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E132" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="F132">
-        <v>27084.01</v>
+        <v>39003.120000000003</v>
       </c>
       <c r="G132">
-        <v>4314</v>
+        <v>2621</v>
       </c>
       <c r="H132">
-        <v>6.28</v>
+        <v>14.88</v>
       </c>
       <c r="I132">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J132" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K132">
-        <v>7700</v>
+        <v>290</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B133" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C133">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D133" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E133" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="F133">
-        <v>22343.85</v>
+        <v>64503.69</v>
       </c>
       <c r="G133">
-        <v>3544</v>
+        <v>4279</v>
       </c>
       <c r="H133">
-        <v>6.3</v>
+        <v>15.07</v>
       </c>
       <c r="I133">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J133" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K133">
-        <v>6420</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B134" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C134">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D134" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E134" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="F134">
-        <v>22956.67</v>
+        <v>43211.72</v>
       </c>
       <c r="G134">
-        <v>3629</v>
+        <v>2860</v>
       </c>
       <c r="H134">
-        <v>6.33</v>
+        <v>15.11</v>
       </c>
       <c r="I134">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J134" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K134">
-        <v>6651</v>
+        <v>968</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B135" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C135">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D135" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E135" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="F135">
-        <v>25688.14</v>
+        <v>7316</v>
       </c>
       <c r="G135">
-        <v>3979</v>
+        <v>466</v>
       </c>
       <c r="H135">
-        <v>6.46</v>
+        <v>15.7</v>
       </c>
       <c r="I135">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J135" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K135">
-        <v>7810</v>
+        <v>433</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B136" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C136">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D136" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="E136" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="F136">
-        <v>6577.7000000000007</v>
+        <v>58801</v>
       </c>
       <c r="G136">
-        <v>1004</v>
+        <v>3741</v>
       </c>
       <c r="H136">
-        <v>6.55</v>
+        <v>15.72</v>
       </c>
       <c r="I136">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J136" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K136">
-        <v>2067</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B137" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C137">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D137" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E137" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="F137">
-        <v>18777.66</v>
+        <v>17885</v>
       </c>
       <c r="G137">
-        <v>2800</v>
+        <v>1132.200000000001</v>
       </c>
       <c r="H137">
-        <v>6.71</v>
+        <v>15.8</v>
       </c>
       <c r="I137">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J137" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K137">
-        <v>6197</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B138" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C138">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D138" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E138" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="F138">
-        <v>24644.01</v>
+        <v>25428.94</v>
       </c>
       <c r="G138">
-        <v>3458</v>
+        <v>1563</v>
       </c>
       <c r="H138">
-        <v>7.13</v>
+        <v>16.27</v>
       </c>
       <c r="I138">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J138" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K138">
-        <v>9107</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B139" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C139">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D139" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E139" t="s">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="F139">
-        <v>20417.77</v>
+        <v>55200.07</v>
       </c>
       <c r="G139">
-        <v>2720</v>
+        <v>3372</v>
       </c>
       <c r="H139">
-        <v>7.51</v>
+        <v>16.37</v>
       </c>
       <c r="I139">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J139" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K139">
-        <v>8196</v>
+        <v>5394</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B140" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C140">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E140" t="s">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="F140">
-        <v>21106.98</v>
+        <v>28635.56</v>
       </c>
       <c r="G140">
-        <v>2793</v>
+        <v>1714</v>
       </c>
       <c r="H140">
-        <v>7.56</v>
+        <v>16.71</v>
       </c>
       <c r="I140">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J140" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K140">
-        <v>8558</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B141" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C141">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D141" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="E141" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="F141">
-        <v>20634.28</v>
+        <v>59566</v>
       </c>
       <c r="G141">
-        <v>2666</v>
+        <v>3561</v>
       </c>
       <c r="H141">
-        <v>7.74</v>
+        <v>16.73</v>
       </c>
       <c r="I141">
-        <v>4.49</v>
+        <v>14.77</v>
       </c>
       <c r="J141" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K141">
-        <v>8655</v>
+        <v>6968</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="B142" t="s">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="C142">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D142" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="E142" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="F142">
-        <v>4390</v>
+        <v>49834.239999999998</v>
       </c>
       <c r="G142">
-        <v>2513</v>
+        <v>2922</v>
       </c>
       <c r="H142">
-        <v>1.75</v>
+        <v>17.05</v>
       </c>
       <c r="I142">
-        <v>3.49</v>
+        <v>14.77</v>
       </c>
       <c r="J142" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K142">
-        <v>0</v>
+        <v>6675</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="B143" t="s">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="C143">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D143" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="E143" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="F143">
-        <v>3458</v>
+        <v>70818.649999999994</v>
       </c>
       <c r="G143">
-        <v>1528</v>
+        <v>4053</v>
       </c>
       <c r="H143">
-        <v>2.2599999999999998</v>
+        <v>17.47</v>
       </c>
       <c r="I143">
-        <v>3.49</v>
+        <v>14.77</v>
       </c>
       <c r="J143" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>10954</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="B144" t="s">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="C144">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D144" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E144" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="F144">
-        <v>50</v>
+        <v>39546.21</v>
       </c>
       <c r="G144">
-        <v>19.900000000000091</v>
+        <v>2247</v>
       </c>
       <c r="H144">
-        <v>2.5099999999999998</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="I144">
-        <v>3.49</v>
+        <v>14.77</v>
       </c>
       <c r="J144" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K144">
-        <v>0</v>
+        <v>6357</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>209</v>
+        <v>71</v>
       </c>
       <c r="B145" t="s">
-        <v>210</v>
+        <v>24</v>
       </c>
       <c r="C145">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D145" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="E145" t="s">
-        <v>214</v>
+        <v>102</v>
       </c>
       <c r="F145">
-        <v>1442</v>
+        <v>12945</v>
       </c>
       <c r="G145">
-        <v>526</v>
+        <v>734</v>
       </c>
       <c r="H145">
-        <v>2.74</v>
+        <v>17.64</v>
       </c>
       <c r="I145">
-        <v>3.49</v>
+        <v>2.39</v>
       </c>
       <c r="J145" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K145">
-        <v>0</v>
+        <v>11187</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="B146" t="s">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="C146">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D146" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="E146" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="F146">
-        <v>14701.57</v>
+        <v>31173.93</v>
       </c>
       <c r="G146">
-        <v>3474</v>
+        <v>1639</v>
       </c>
       <c r="H146">
-        <v>4.2300000000000004</v>
+        <v>19.02</v>
       </c>
       <c r="I146">
-        <v>3.49</v>
+        <v>14.77</v>
       </c>
       <c r="J146" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K146">
-        <v>2589</v>
+        <v>6965</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="B147" t="s">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="C147">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D147" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="E147" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="F147">
-        <v>7583</v>
+        <v>60370.98</v>
       </c>
       <c r="G147">
-        <v>1687</v>
+        <v>2963</v>
       </c>
       <c r="H147">
-        <v>4.49</v>
+        <v>20.37</v>
       </c>
       <c r="I147">
-        <v>3.49</v>
+        <v>14.77</v>
       </c>
       <c r="J147" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K147">
-        <v>1701</v>
+        <v>16606</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="B148" t="s">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="C148">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D148" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E148" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="F148">
-        <v>2600</v>
+        <v>20350</v>
       </c>
       <c r="G148">
-        <v>500.59999999999849</v>
+        <v>972</v>
       </c>
       <c r="H148">
-        <v>5.19</v>
+        <v>20.94</v>
       </c>
       <c r="I148">
-        <v>3.49</v>
+        <v>14.77</v>
       </c>
       <c r="J148" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K148">
-        <v>855</v>
+        <v>5993</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="B149" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="C149">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D149" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="E149" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="F149">
-        <v>5231</v>
+        <v>8146</v>
       </c>
       <c r="G149">
-        <v>876</v>
+        <v>364.90000000000038</v>
       </c>
       <c r="H149">
-        <v>5.97</v>
+        <v>22.32</v>
       </c>
       <c r="I149">
-        <v>3.49</v>
+        <v>11.82</v>
       </c>
       <c r="J149" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K149">
-        <v>2177</v>
+        <v>3833</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K149" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K149">
-      <sortCondition ref="A1:A149"/>
+      <sortCondition ref="H1:H149"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6433,16 +6419,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
@@ -6455,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -6475,375 +6461,214 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>138085.46</v>
+        <v>141091.46</v>
       </c>
       <c r="D2">
-        <v>23436</v>
+        <v>23890.1</v>
       </c>
       <c r="E2">
-        <v>5.86</v>
+        <v>6.03</v>
       </c>
       <c r="F2">
-        <v>1257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>3006</v>
+        <v>12907.9</v>
       </c>
       <c r="D3">
-        <v>454.09999999999991</v>
+        <v>2764.4</v>
       </c>
       <c r="E3">
-        <v>6.62</v>
+        <v>5.22</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>12907.9</v>
+        <v>94291.47</v>
       </c>
       <c r="D4">
-        <v>2764.4</v>
+        <v>25009.46</v>
       </c>
       <c r="E4">
-        <v>5.22</v>
+        <v>3.44</v>
       </c>
       <c r="F4">
-        <v>18</v>
+        <v>17395</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>15829</v>
+        <v>60827.44</v>
       </c>
       <c r="D5">
-        <v>1359.6</v>
+        <v>19200.400000000001</v>
       </c>
       <c r="E5">
-        <v>11.65</v>
+        <v>2.39</v>
       </c>
       <c r="F5">
-        <v>23</v>
+        <v>19118</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>52266.87</v>
+        <v>68095.87</v>
       </c>
       <c r="D6">
-        <v>4829.5</v>
+        <v>6189.1</v>
       </c>
       <c r="E6">
-        <v>10.29</v>
+        <v>11.26</v>
       </c>
       <c r="F6">
-        <v>4231</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>26596.37</v>
+        <v>1166264.26</v>
       </c>
       <c r="D7">
-        <v>9300.4</v>
+        <v>79239.3</v>
       </c>
       <c r="E7">
-        <v>1.83</v>
+        <v>14.77</v>
       </c>
       <c r="F7">
-        <v>10602</v>
+        <v>79273</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>34231.07</v>
+        <v>93423.52</v>
       </c>
       <c r="D8">
-        <v>11117</v>
+        <v>11976</v>
       </c>
       <c r="E8">
-        <v>2.83</v>
+        <v>7.69</v>
       </c>
       <c r="F8">
-        <v>4154</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>43997.75</v>
+        <v>23471.439999999999</v>
       </c>
       <c r="D9">
-        <v>14518.76</v>
+        <v>1613.7</v>
       </c>
       <c r="E9">
-        <v>3.09</v>
+        <v>11.82</v>
       </c>
       <c r="F9">
-        <v>3521</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>6980.08</v>
+        <v>571746.5</v>
       </c>
       <c r="D10">
-        <v>3886</v>
+        <v>115305.60000000001</v>
       </c>
       <c r="E10">
-        <v>2.64</v>
+        <v>4.49</v>
       </c>
       <c r="F10">
-        <v>381</v>
+        <v>100711</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>38215.64</v>
+        <v>39455.57</v>
       </c>
       <c r="D11">
-        <v>8243</v>
+        <v>11124.5</v>
       </c>
       <c r="E11">
-        <v>4.6900000000000004</v>
+        <v>3.49</v>
       </c>
       <c r="F11">
-        <v>5377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>5098</v>
-      </c>
-      <c r="D12">
-        <v>925.70000000000027</v>
-      </c>
-      <c r="E12">
-        <v>5.51</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>138195.85</v>
-      </c>
-      <c r="D13">
-        <v>10773</v>
-      </c>
-      <c r="E13">
-        <v>12.56</v>
-      </c>
-      <c r="F13">
-        <v>13186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14">
-        <v>27</v>
-      </c>
-      <c r="C14">
-        <v>1028068.41</v>
-      </c>
-      <c r="D14">
-        <v>68466.3</v>
-      </c>
-      <c r="E14">
-        <v>15.07</v>
-      </c>
-      <c r="F14">
-        <v>64791</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>9859.6999999999989</v>
-      </c>
-      <c r="D15">
-        <v>1729</v>
-      </c>
-      <c r="E15">
-        <v>3.76</v>
-      </c>
-      <c r="F15">
-        <v>4377</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>83563.820000000007</v>
-      </c>
-      <c r="D16">
-        <v>10400</v>
-      </c>
-      <c r="E16">
-        <v>7.81</v>
-      </c>
-      <c r="F16">
-        <v>2781</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>23471.439999999999</v>
-      </c>
-      <c r="D17">
-        <v>5537.1</v>
-      </c>
-      <c r="E17">
-        <v>11.63</v>
-      </c>
-      <c r="F17">
-        <v>5205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18">
-        <v>34</v>
-      </c>
-      <c r="C18">
-        <v>571746.5</v>
-      </c>
-      <c r="D18">
-        <v>115305.60000000001</v>
-      </c>
-      <c r="E18">
-        <v>4.49</v>
-      </c>
-      <c r="F18">
-        <v>100711</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>209</v>
-      </c>
-      <c r="B19">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <v>39455.57</v>
-      </c>
-      <c r="D19">
-        <v>11124.5</v>
-      </c>
-      <c r="E19">
-        <v>3.49</v>
-      </c>
-      <c r="F19">
         <v>7322</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F19" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:F11" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6872,15 +6697,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6889,15 +6714,15 @@
         <v>4507</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -6906,15 +6731,15 @@
         <v>4248</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -6923,15 +6748,15 @@
         <v>3908</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -6940,15 +6765,15 @@
         <v>4463</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6957,15 +6782,15 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6974,15 +6799,15 @@
         <v>4948</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -6991,15 +6816,15 @@
         <v>4420</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -7008,15 +6833,15 @@
         <v>4792</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -7025,15 +6850,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -7042,15 +6867,15 @@
         <v>1072.3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -7059,15 +6884,15 @@
         <v>3665</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -7076,15 +6901,15 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -7093,15 +6918,15 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -7110,15 +6935,15 @@
         <v>3923</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -7129,13 +6954,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C17" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -7144,15 +6969,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C18" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -7161,15 +6986,15 @@
         <v>3227</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -7178,15 +7003,15 @@
         <v>3901</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C20" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -7195,15 +7020,15 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -7212,15 +7037,15 @@
         <v>3565</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C22" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -7229,15 +7054,15 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C23" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -7246,15 +7071,15 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C24" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -7263,15 +7088,15 @@
         <v>4344</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -7282,13 +7107,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C26" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -7297,15 +7122,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B27" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C27" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -7314,15 +7139,15 @@
         <v>2858</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -7331,15 +7156,15 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C29" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -7348,15 +7173,15 @@
         <v>4822</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B30" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C30" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -7365,15 +7190,15 @@
         <v>4364</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B31" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -7382,15 +7207,15 @@
         <v>4840</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B32" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -7399,15 +7224,15 @@
         <v>3383</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B33" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C33" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -7416,15 +7241,15 @@
         <v>5566</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B34" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C34" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -7433,15 +7258,15 @@
         <v>4536</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B35" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C35" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -7450,15 +7275,15 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B36" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -7467,15 +7292,15 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B37" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C37" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -7484,15 +7309,15 @@
         <v>4949</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -7503,13 +7328,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C39" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D39">
         <v>85</v>
@@ -7518,15 +7343,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C40" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -7535,15 +7360,15 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -7552,15 +7377,15 @@
         <v>545.1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
         <v>24</v>
       </c>
-      <c r="B42" t="s">
-        <v>25</v>
-      </c>
       <c r="C42" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -7569,15 +7394,15 @@
         <v>135.1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -7586,15 +7411,15 @@
         <v>848.29999999999973</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C44" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -7603,15 +7428,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C45" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -7620,15 +7445,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D46">
         <v>27.79</v>
@@ -7638,13 +7463,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E46" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="TRONTON"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E46" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>